--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1626"/>
+  <dimension ref="A1:R1630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91525,7 +91525,225 @@
       <c r="Q1626" t="n">
         <v>0</v>
       </c>
-      <c r="R1626" t="inlineStr"/>
+      <c r="R1626" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="2" t="n">
+        <v>45446.42708333334</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>1493.050048828125</v>
+      </c>
+      <c r="C1627" t="n">
+        <v>1493.199951171875</v>
+      </c>
+      <c r="D1627" t="n">
+        <v>1465</v>
+      </c>
+      <c r="E1627" t="n">
+        <v>1472.849975585938</v>
+      </c>
+      <c r="F1627" t="n">
+        <v>1472.849975585938</v>
+      </c>
+      <c r="G1627" t="n">
+        <v>362964</v>
+      </c>
+      <c r="H1627" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1627" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1627" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1627" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1627" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1627" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1627" t="inlineStr"/>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="2" t="n">
+        <v>45446.46875</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>1472.699951171875</v>
+      </c>
+      <c r="C1628" t="n">
+        <v>1475.599975585938</v>
+      </c>
+      <c r="D1628" t="n">
+        <v>1471.699951171875</v>
+      </c>
+      <c r="E1628" t="n">
+        <v>1474.5</v>
+      </c>
+      <c r="F1628" t="n">
+        <v>1474.5</v>
+      </c>
+      <c r="G1628" t="n">
+        <v>136209</v>
+      </c>
+      <c r="H1628" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1628" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1628" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1628" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1628" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1628" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1628" t="inlineStr"/>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="2" t="n">
+        <v>45446.51041666666</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>1474.5</v>
+      </c>
+      <c r="C1629" t="n">
+        <v>1481</v>
+      </c>
+      <c r="D1629" t="n">
+        <v>1472.650024414062</v>
+      </c>
+      <c r="E1629" t="n">
+        <v>1479</v>
+      </c>
+      <c r="F1629" t="n">
+        <v>1479</v>
+      </c>
+      <c r="G1629" t="n">
+        <v>148728</v>
+      </c>
+      <c r="H1629" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1629" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1629" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1629" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1629" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1629" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1629" t="inlineStr"/>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>1479.449951171875</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>1488.449951171875</v>
+      </c>
+      <c r="D1630" t="n">
+        <v>1478.300048828125</v>
+      </c>
+      <c r="E1630" t="n">
+        <v>1484.150024414062</v>
+      </c>
+      <c r="F1630" t="n">
+        <v>1484.150024414062</v>
+      </c>
+      <c r="G1630" t="n">
+        <v>128270</v>
+      </c>
+      <c r="H1630" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1630" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1630" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1630" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1630" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1630" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1630" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1630"/>
+  <dimension ref="A1:R1632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91581,7 +91581,9 @@
       <c r="Q1627" t="n">
         <v>0</v>
       </c>
-      <c r="R1627" t="inlineStr"/>
+      <c r="R1627" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1628">
       <c r="A1628" s="2" t="n">
@@ -91635,7 +91637,9 @@
       <c r="Q1628" t="n">
         <v>0</v>
       </c>
-      <c r="R1628" t="inlineStr"/>
+      <c r="R1628" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1629">
       <c r="A1629" s="2" t="n">
@@ -91689,7 +91693,9 @@
       <c r="Q1629" t="n">
         <v>0</v>
       </c>
-      <c r="R1629" t="inlineStr"/>
+      <c r="R1629" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1630">
       <c r="A1630" s="2" t="n">
@@ -91743,7 +91749,117 @@
       <c r="Q1630" t="n">
         <v>0</v>
       </c>
-      <c r="R1630" t="inlineStr"/>
+      <c r="R1630" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="2" t="n">
+        <v>45446.59375</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>1484.800048828125</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>1495.599975585938</v>
+      </c>
+      <c r="D1631" t="n">
+        <v>1483.25</v>
+      </c>
+      <c r="E1631" t="n">
+        <v>1490.699951171875</v>
+      </c>
+      <c r="F1631" t="n">
+        <v>1490.699951171875</v>
+      </c>
+      <c r="G1631" t="n">
+        <v>360876</v>
+      </c>
+      <c r="H1631" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1631" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1631" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1631" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1631" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1631" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1631" t="inlineStr"/>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="2" t="n">
+        <v>45446.63541666666</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>1491.199951171875</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>1510</v>
+      </c>
+      <c r="D1632" t="n">
+        <v>1488.25</v>
+      </c>
+      <c r="E1632" t="n">
+        <v>1492.5</v>
+      </c>
+      <c r="F1632" t="n">
+        <v>1492.5</v>
+      </c>
+      <c r="G1632" t="n">
+        <v>162662</v>
+      </c>
+      <c r="H1632" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1632" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1632" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1632" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1632" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1632" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1632" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -91805,7 +91805,9 @@
       <c r="Q1631" t="n">
         <v>0</v>
       </c>
-      <c r="R1631" t="inlineStr"/>
+      <c r="R1631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1632">
       <c r="A1632" s="2" t="n">
@@ -91859,7 +91861,9 @@
       <c r="Q1632" t="n">
         <v>0</v>
       </c>
-      <c r="R1632" t="inlineStr"/>
+      <c r="R1632" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1632"/>
+  <dimension ref="A1:R1639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91517,7 +91517,7 @@
         <v>23</v>
       </c>
       <c r="O1626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1626" t="n">
         <v>0</v>
@@ -91864,6 +91864,384 @@
       <c r="R1632" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="2" t="n">
+        <v>45447.38541666666</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>1475.050048828125</v>
+      </c>
+      <c r="C1633" t="n">
+        <v>1475.050048828125</v>
+      </c>
+      <c r="D1633" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E1633" t="n">
+        <v>1426.25</v>
+      </c>
+      <c r="F1633" t="n">
+        <v>1426.25</v>
+      </c>
+      <c r="G1633" t="n">
+        <v>1264641</v>
+      </c>
+      <c r="H1633" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1633" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1633" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1633" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1633" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1633" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1633" t="inlineStr"/>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="2" t="n">
+        <v>45447.42708333334</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>1426.050048828125</v>
+      </c>
+      <c r="C1634" t="n">
+        <v>1429</v>
+      </c>
+      <c r="D1634" t="n">
+        <v>1195</v>
+      </c>
+      <c r="E1634" t="n">
+        <v>1247.849975585938</v>
+      </c>
+      <c r="F1634" t="n">
+        <v>1247.849975585938</v>
+      </c>
+      <c r="G1634" t="n">
+        <v>961076</v>
+      </c>
+      <c r="H1634" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1634" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1634" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1634" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1634" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1634" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1634" t="inlineStr"/>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="2" t="n">
+        <v>45447.46875</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>1251.5</v>
+      </c>
+      <c r="C1635" t="n">
+        <v>1270</v>
+      </c>
+      <c r="D1635" t="n">
+        <v>1194</v>
+      </c>
+      <c r="E1635" t="n">
+        <v>1194</v>
+      </c>
+      <c r="F1635" t="n">
+        <v>1194</v>
+      </c>
+      <c r="G1635" t="n">
+        <v>1053010</v>
+      </c>
+      <c r="H1635" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1635" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1635" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1635" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1635" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1635" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1635" t="inlineStr"/>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="2" t="n">
+        <v>45447.51041666666</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>1194</v>
+      </c>
+      <c r="C1636" t="n">
+        <v>1235.900024414062</v>
+      </c>
+      <c r="D1636" t="n">
+        <v>1194</v>
+      </c>
+      <c r="E1636" t="n">
+        <v>1230</v>
+      </c>
+      <c r="F1636" t="n">
+        <v>1230</v>
+      </c>
+      <c r="G1636" t="n">
+        <v>823839</v>
+      </c>
+      <c r="H1636" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1636" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1636" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1636" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1636" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1636" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1636" t="inlineStr"/>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>1229.949951171875</v>
+      </c>
+      <c r="C1637" t="n">
+        <v>1286.050048828125</v>
+      </c>
+      <c r="D1637" t="n">
+        <v>1220</v>
+      </c>
+      <c r="E1637" t="n">
+        <v>1248.300048828125</v>
+      </c>
+      <c r="F1637" t="n">
+        <v>1248.300048828125</v>
+      </c>
+      <c r="G1637" t="n">
+        <v>719719</v>
+      </c>
+      <c r="H1637" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1637" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1637" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1637" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1637" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1637" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1637" t="inlineStr"/>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>1248</v>
+      </c>
+      <c r="C1638" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D1638" t="n">
+        <v>1195</v>
+      </c>
+      <c r="E1638" t="n">
+        <v>1199</v>
+      </c>
+      <c r="F1638" t="n">
+        <v>1199</v>
+      </c>
+      <c r="G1638" t="n">
+        <v>417605</v>
+      </c>
+      <c r="H1638" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1638" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1638" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1638" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1638" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1638" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1638" t="inlineStr"/>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="2" t="n">
+        <v>45447.63541666666</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>1198.400024414062</v>
+      </c>
+      <c r="C1639" t="n">
+        <v>1203.099975585938</v>
+      </c>
+      <c r="D1639" t="n">
+        <v>1194</v>
+      </c>
+      <c r="E1639" t="n">
+        <v>1198.449951171875</v>
+      </c>
+      <c r="F1639" t="n">
+        <v>1198.449951171875</v>
+      </c>
+      <c r="G1639" t="n">
+        <v>137007</v>
+      </c>
+      <c r="H1639" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1639" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1639" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1639" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1639" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1639" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1639" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -92701,7 +92701,9 @@
       <c r="Q1647" t="n">
         <v>0</v>
       </c>
-      <c r="R1647" t="inlineStr"/>
+      <c r="R1647" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1648">
       <c r="A1648" s="2" t="n">
@@ -92755,7 +92757,9 @@
       <c r="Q1648" t="n">
         <v>0</v>
       </c>
-      <c r="R1648" t="inlineStr"/>
+      <c r="R1648" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1649">
       <c r="A1649" s="2" t="n">
@@ -92809,7 +92813,9 @@
       <c r="Q1649" t="n">
         <v>0</v>
       </c>
-      <c r="R1649" t="inlineStr"/>
+      <c r="R1649" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1650">
       <c r="A1650" s="2" t="n">
@@ -92863,7 +92869,9 @@
       <c r="Q1650" t="n">
         <v>0</v>
       </c>
-      <c r="R1650" t="inlineStr"/>
+      <c r="R1650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1651">
       <c r="A1651" s="2" t="n">
@@ -92917,7 +92925,9 @@
       <c r="Q1651" t="n">
         <v>0</v>
       </c>
-      <c r="R1651" t="inlineStr"/>
+      <c r="R1651" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1652">
       <c r="A1652" s="2" t="n">
@@ -92971,7 +92981,9 @@
       <c r="Q1652" t="n">
         <v>0</v>
       </c>
-      <c r="R1652" t="inlineStr"/>
+      <c r="R1652" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1653">
       <c r="A1653" s="2" t="n">
@@ -93025,7 +93037,9 @@
       <c r="Q1653" t="n">
         <v>0</v>
       </c>
-      <c r="R1653" t="inlineStr"/>
+      <c r="R1653" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1653"/>
+  <dimension ref="A1:R1654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93041,6 +93041,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1654">
+      <c r="A1654" s="2" t="n">
+        <v>45450.38541666666</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>1179.949951171875</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>1205</v>
+      </c>
+      <c r="D1654" t="n">
+        <v>1156.699951171875</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>1189.050048828125</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>1189.050048828125</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>579175</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1654" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1654" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1654" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1654" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1654" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1654" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1654"/>
+  <dimension ref="A1:R1660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93093,7 +93093,333 @@
       <c r="Q1654" t="n">
         <v>0</v>
       </c>
-      <c r="R1654" t="inlineStr"/>
+      <c r="R1654" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="2" t="n">
+        <v>45450.42708333334</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>1183</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>1203.199951171875</v>
+      </c>
+      <c r="D1655" t="n">
+        <v>1171</v>
+      </c>
+      <c r="E1655" t="n">
+        <v>1195.199951171875</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>1195.199951171875</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>603333</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1655" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1655" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1655" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1655" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1655" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1655" t="inlineStr"/>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="2" t="n">
+        <v>45450.46875</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>1194.349975585938</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>1200.75</v>
+      </c>
+      <c r="D1656" t="n">
+        <v>1190</v>
+      </c>
+      <c r="E1656" t="n">
+        <v>1196.900024414062</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>1196.900024414062</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>182753</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1656" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1656" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1656" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1656" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1656" t="inlineStr"/>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="2" t="n">
+        <v>45450.51041666666</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>1196.900024414062</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>1203</v>
+      </c>
+      <c r="D1657" t="n">
+        <v>1186.199951171875</v>
+      </c>
+      <c r="E1657" t="n">
+        <v>1190</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>1190</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>190795</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1657" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1657" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1657" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1657" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1657" t="inlineStr"/>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="2" t="n">
+        <v>45450.55208333334</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>1189.650024414062</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>1202</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>1189.5</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>1198.300048828125</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>1198.300048828125</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>128406</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1658" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1658" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1658" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1658" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1658" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1658" t="inlineStr"/>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="2" t="n">
+        <v>45450.59375</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>1198</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>1211</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>1197.900024414062</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>1206.550048828125</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>1206.550048828125</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>304158</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1659" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1659" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1659" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1659" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1659" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1659" t="inlineStr"/>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="2" t="n">
+        <v>45450.63541666666</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>1206.449951171875</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>1214.949951171875</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>1205</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>1208.650024414062</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>1208.650024414062</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>169069</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1660" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1660" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1660" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1660" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1660" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1666"/>
+  <dimension ref="A1:R1667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93485,7 +93485,9 @@
       <c r="Q1661" t="n">
         <v>0</v>
       </c>
-      <c r="R1661" t="inlineStr"/>
+      <c r="R1661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1662">
       <c r="A1662" s="2" t="n">
@@ -93539,7 +93541,9 @@
       <c r="Q1662" t="n">
         <v>0</v>
       </c>
-      <c r="R1662" t="inlineStr"/>
+      <c r="R1662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1663">
       <c r="A1663" s="2" t="n">
@@ -93593,7 +93597,9 @@
       <c r="Q1663" t="n">
         <v>0</v>
       </c>
-      <c r="R1663" t="inlineStr"/>
+      <c r="R1663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1664">
       <c r="A1664" s="2" t="n">
@@ -93647,7 +93653,9 @@
       <c r="Q1664" t="n">
         <v>0</v>
       </c>
-      <c r="R1664" t="inlineStr"/>
+      <c r="R1664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1665">
       <c r="A1665" s="2" t="n">
@@ -93701,7 +93709,9 @@
       <c r="Q1665" t="n">
         <v>0</v>
       </c>
-      <c r="R1665" t="inlineStr"/>
+      <c r="R1665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1666">
       <c r="A1666" s="2" t="n">
@@ -93755,7 +93765,63 @@
       <c r="Q1666" t="n">
         <v>0</v>
       </c>
-      <c r="R1666" t="inlineStr"/>
+      <c r="R1666" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="2" t="n">
+        <v>45453.63541666666</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>1346.099975585938</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>1356.150024414062</v>
+      </c>
+      <c r="D1667" t="n">
+        <v>1326.5</v>
+      </c>
+      <c r="E1667" t="n">
+        <v>1342.300048828125</v>
+      </c>
+      <c r="F1667" t="n">
+        <v>1342.300048828125</v>
+      </c>
+      <c r="G1667" t="n">
+        <v>744933</v>
+      </c>
+      <c r="H1667" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1667" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1667" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1667" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1667" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1667" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1667" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1667"/>
+  <dimension ref="A1:R1674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93821,7 +93821,387 @@
       <c r="Q1667" t="n">
         <v>0</v>
       </c>
-      <c r="R1667" t="inlineStr"/>
+      <c r="R1667" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="2" t="n">
+        <v>45454.38541666666</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>1345.800048828125</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>1374.150024414062</v>
+      </c>
+      <c r="D1668" t="n">
+        <v>1312.300048828125</v>
+      </c>
+      <c r="E1668" t="n">
+        <v>1321.300048828125</v>
+      </c>
+      <c r="F1668" t="n">
+        <v>1321.300048828125</v>
+      </c>
+      <c r="G1668" t="n">
+        <v>1729672</v>
+      </c>
+      <c r="H1668" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1668" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1668" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1668" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1668" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1668" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1668" t="inlineStr"/>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="2" t="n">
+        <v>45454.42708333334</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>1321.199951171875</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>1356.449951171875</v>
+      </c>
+      <c r="D1669" t="n">
+        <v>1316.050048828125</v>
+      </c>
+      <c r="E1669" t="n">
+        <v>1349.199951171875</v>
+      </c>
+      <c r="F1669" t="n">
+        <v>1349.199951171875</v>
+      </c>
+      <c r="G1669" t="n">
+        <v>680288</v>
+      </c>
+      <c r="H1669" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1669" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1669" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1669" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1669" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1669" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1669" t="inlineStr"/>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="2" t="n">
+        <v>45454.46875</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>1359.800048828125</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>1348</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>1350</v>
+      </c>
+      <c r="F1670" t="n">
+        <v>1350</v>
+      </c>
+      <c r="G1670" t="n">
+        <v>272091</v>
+      </c>
+      <c r="H1670" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1670" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1670" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1670" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1670" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1670" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1670" t="inlineStr"/>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="2" t="n">
+        <v>45454.51041666666</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>1354.900024414062</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>1346.150024414062</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>1350</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>1350</v>
+      </c>
+      <c r="G1671" t="n">
+        <v>179420</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1671" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1671" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1671" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1671" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1671" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1671" t="inlineStr"/>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="2" t="n">
+        <v>45454.55208333334</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>1354.550048828125</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>1350</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>1350</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>1350</v>
+      </c>
+      <c r="G1672" t="n">
+        <v>138388</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1672" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1672" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1672" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1672" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1672" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1672" t="inlineStr"/>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="2" t="n">
+        <v>45454.59375</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>1350.300048828125</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>1360</v>
+      </c>
+      <c r="D1673" t="n">
+        <v>1345.449951171875</v>
+      </c>
+      <c r="E1673" t="n">
+        <v>1349.5</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>1349.5</v>
+      </c>
+      <c r="G1673" t="n">
+        <v>471353</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1673" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1673" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1673" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1673" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1673" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1673" t="inlineStr"/>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="2" t="n">
+        <v>45454.63541666666</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>1349.75</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>1353.400024414062</v>
+      </c>
+      <c r="D1674" t="n">
+        <v>1347.099975585938</v>
+      </c>
+      <c r="E1674" t="n">
+        <v>1350</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>1350</v>
+      </c>
+      <c r="G1674" t="n">
+        <v>159815</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1674" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1674" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1674" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1674" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1674" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1674" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1674"/>
+  <dimension ref="A1:R1681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93877,7 +93877,9 @@
       <c r="Q1668" t="n">
         <v>0</v>
       </c>
-      <c r="R1668" t="inlineStr"/>
+      <c r="R1668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1669">
       <c r="A1669" s="2" t="n">
@@ -93931,7 +93933,9 @@
       <c r="Q1669" t="n">
         <v>0</v>
       </c>
-      <c r="R1669" t="inlineStr"/>
+      <c r="R1669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1670">
       <c r="A1670" s="2" t="n">
@@ -93985,7 +93989,9 @@
       <c r="Q1670" t="n">
         <v>0</v>
       </c>
-      <c r="R1670" t="inlineStr"/>
+      <c r="R1670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1671">
       <c r="A1671" s="2" t="n">
@@ -94039,7 +94045,9 @@
       <c r="Q1671" t="n">
         <v>0</v>
       </c>
-      <c r="R1671" t="inlineStr"/>
+      <c r="R1671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1672">
       <c r="A1672" s="2" t="n">
@@ -94093,7 +94101,9 @@
       <c r="Q1672" t="n">
         <v>0</v>
       </c>
-      <c r="R1672" t="inlineStr"/>
+      <c r="R1672" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1673">
       <c r="A1673" s="2" t="n">
@@ -94147,7 +94157,9 @@
       <c r="Q1673" t="n">
         <v>0</v>
       </c>
-      <c r="R1673" t="inlineStr"/>
+      <c r="R1673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1674">
       <c r="A1674" s="2" t="n">
@@ -94201,7 +94213,387 @@
       <c r="Q1674" t="n">
         <v>0</v>
       </c>
-      <c r="R1674" t="inlineStr"/>
+      <c r="R1674" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="2" t="n">
+        <v>45455.38541666666</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>1362.800048828125</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>1372.349975585938</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>1348</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>1353.599975585938</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>1353.599975585938</v>
+      </c>
+      <c r="G1675" t="n">
+        <v>459533</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1675" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1675" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1675" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1675" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1675" t="inlineStr"/>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="2" t="n">
+        <v>45455.42708333334</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>1353.400024414062</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>1390</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>1351.400024414062</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>1383.699951171875</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>1383.699951171875</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>612860</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1676" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1676" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1676" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1676" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1676" t="inlineStr"/>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="2" t="n">
+        <v>45455.46875</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>1384.699951171875</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>1414</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>1383.599975585938</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>1393.300048828125</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>1393.300048828125</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>1034864</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1677" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1677" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1677" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1677" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1677" t="inlineStr"/>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="2" t="n">
+        <v>45455.51041666666</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>1393.300048828125</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>1446.849975585938</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>1388</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>1436</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>1436</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>1445198</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1678" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1678" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1678" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1678" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1678" t="inlineStr"/>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="2" t="n">
+        <v>45455.55208333334</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>1436.800048828125</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>1473</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>1436.050048828125</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>1449.599975585938</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>1449.599975585938</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>2431560</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1679" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1679" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1679" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1679" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1679" t="inlineStr"/>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="2" t="n">
+        <v>45455.59375</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>1449.599975585938</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>1450</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>1407.150024414062</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>1409</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>1409</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>1337946</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1680" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1680" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1680" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1680" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1680" t="inlineStr"/>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="2" t="n">
+        <v>45455.63541666666</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>1408</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>1425</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>1408</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>1417.199951171875</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>1417.199951171875</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>350309</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1681" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1681" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1681" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1681" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1681" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1681"/>
+  <dimension ref="A1:R1688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94269,7 +94269,9 @@
       <c r="Q1675" t="n">
         <v>0</v>
       </c>
-      <c r="R1675" t="inlineStr"/>
+      <c r="R1675" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1676">
       <c r="A1676" s="2" t="n">
@@ -94323,7 +94325,9 @@
       <c r="Q1676" t="n">
         <v>0</v>
       </c>
-      <c r="R1676" t="inlineStr"/>
+      <c r="R1676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1677">
       <c r="A1677" s="2" t="n">
@@ -94377,7 +94381,9 @@
       <c r="Q1677" t="n">
         <v>0</v>
       </c>
-      <c r="R1677" t="inlineStr"/>
+      <c r="R1677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1678">
       <c r="A1678" s="2" t="n">
@@ -94431,7 +94437,9 @@
       <c r="Q1678" t="n">
         <v>0</v>
       </c>
-      <c r="R1678" t="inlineStr"/>
+      <c r="R1678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1679">
       <c r="A1679" s="2" t="n">
@@ -94485,7 +94493,9 @@
       <c r="Q1679" t="n">
         <v>0</v>
       </c>
-      <c r="R1679" t="inlineStr"/>
+      <c r="R1679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1680">
       <c r="A1680" s="2" t="n">
@@ -94539,7 +94549,9 @@
       <c r="Q1680" t="n">
         <v>0</v>
       </c>
-      <c r="R1680" t="inlineStr"/>
+      <c r="R1680" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1681">
       <c r="A1681" s="2" t="n">
@@ -94593,7 +94605,387 @@
       <c r="Q1681" t="n">
         <v>0</v>
       </c>
-      <c r="R1681" t="inlineStr"/>
+      <c r="R1681" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="2" t="n">
+        <v>45456.38541666666</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>1434.400024414062</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>1469</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>1426.050048828125</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>1443.300048828125</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>1443.300048828125</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>1780722</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1682" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1682" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1682" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1682" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1682" t="inlineStr"/>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="2" t="n">
+        <v>45456.42708333334</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>1443.599975585938</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>1449</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>1429.199951171875</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>1433.349975585938</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>1433.349975585938</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>343507</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1683" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1683" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1683" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1683" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1683" t="inlineStr"/>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="2" t="n">
+        <v>45456.46875</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>1434</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>1447</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>1416.050048828125</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>1443</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>1443</v>
+      </c>
+      <c r="G1684" t="n">
+        <v>454051</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1684" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1684" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1684" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1684" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1684" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1684" t="inlineStr"/>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="2" t="n">
+        <v>45456.51041666666</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>1442.599975585938</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>1460</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>1438.050048828125</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>1450.599975585938</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>1450.599975585938</v>
+      </c>
+      <c r="G1685" t="n">
+        <v>717437</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1685" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1685" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1685" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1685" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1685" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1685" t="inlineStr"/>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="2" t="n">
+        <v>45456.55208333334</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>1452</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>1455</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>1440.150024414062</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>1445.050048828125</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>1445.050048828125</v>
+      </c>
+      <c r="G1686" t="n">
+        <v>310661</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1686" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1686" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1686" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1686" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1686" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1686" t="inlineStr"/>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="2" t="n">
+        <v>45456.59375</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>1444.5</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>1448.5</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>1434.199951171875</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>1443.699951171875</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>1443.699951171875</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>371264</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1687" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1687" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1687" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1687" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1687" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1687" t="inlineStr"/>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="2" t="n">
+        <v>45456.63541666666</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>1442.699951171875</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>1450</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>1442</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>1445.650024414062</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>1445.650024414062</v>
+      </c>
+      <c r="G1688" t="n">
+        <v>222209</v>
+      </c>
+      <c r="H1688" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1688" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1688" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1688" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1688" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1688" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1688" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1688"/>
+  <dimension ref="A1:R1695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94661,7 +94661,9 @@
       <c r="Q1682" t="n">
         <v>0</v>
       </c>
-      <c r="R1682" t="inlineStr"/>
+      <c r="R1682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1683">
       <c r="A1683" s="2" t="n">
@@ -94715,7 +94717,9 @@
       <c r="Q1683" t="n">
         <v>0</v>
       </c>
-      <c r="R1683" t="inlineStr"/>
+      <c r="R1683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1684">
       <c r="A1684" s="2" t="n">
@@ -94769,7 +94773,9 @@
       <c r="Q1684" t="n">
         <v>0</v>
       </c>
-      <c r="R1684" t="inlineStr"/>
+      <c r="R1684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1685">
       <c r="A1685" s="2" t="n">
@@ -94823,7 +94829,9 @@
       <c r="Q1685" t="n">
         <v>0</v>
       </c>
-      <c r="R1685" t="inlineStr"/>
+      <c r="R1685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1686">
       <c r="A1686" s="2" t="n">
@@ -94877,7 +94885,9 @@
       <c r="Q1686" t="n">
         <v>0</v>
       </c>
-      <c r="R1686" t="inlineStr"/>
+      <c r="R1686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1687">
       <c r="A1687" s="2" t="n">
@@ -94931,7 +94941,9 @@
       <c r="Q1687" t="n">
         <v>0</v>
       </c>
-      <c r="R1687" t="inlineStr"/>
+      <c r="R1687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1688">
       <c r="A1688" s="2" t="n">
@@ -94985,7 +94997,387 @@
       <c r="Q1688" t="n">
         <v>0</v>
       </c>
-      <c r="R1688" t="inlineStr"/>
+      <c r="R1688" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="2" t="n">
+        <v>45457.38541666666</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>1449.849975585938</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>1449.849975585938</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>1510.550048828125</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>1510.550048828125</v>
+      </c>
+      <c r="G1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1689" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1689" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1689" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1689" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1689" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1689" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1689" t="inlineStr"/>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="2" t="n">
+        <v>45457.42708333334</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>1510.050048828125</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>1511.900024414062</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>1491.050048828125</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>1502.75</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>1502.75</v>
+      </c>
+      <c r="G1690" t="n">
+        <v>912562</v>
+      </c>
+      <c r="H1690" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1690" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1690" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1690" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1690" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1690" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1690" t="inlineStr"/>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="2" t="n">
+        <v>45457.46875</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>1502</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>1502.900024414062</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>1491</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F1691" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G1691" t="n">
+        <v>404331</v>
+      </c>
+      <c r="H1691" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1691" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1691" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1691" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1691" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1691" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1691" t="inlineStr"/>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="2" t="n">
+        <v>45457.51041666666</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>1500.099975585938</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>1508</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>1492.949951171875</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>1495.25</v>
+      </c>
+      <c r="F1692" t="n">
+        <v>1495.25</v>
+      </c>
+      <c r="G1692" t="n">
+        <v>334638</v>
+      </c>
+      <c r="H1692" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1692" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1692" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1692" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1692" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1692" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1692" t="inlineStr"/>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="2" t="n">
+        <v>45457.55208333334</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>1495.099975585938</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>1495.800048828125</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>1462.050048828125</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>1476.849975585938</v>
+      </c>
+      <c r="F1693" t="n">
+        <v>1476.849975585938</v>
+      </c>
+      <c r="G1693" t="n">
+        <v>511726</v>
+      </c>
+      <c r="H1693" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1693" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1693" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1693" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1693" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1693" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1693" t="inlineStr"/>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="2" t="n">
+        <v>45457.59375</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>1476.800048828125</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>1493.849975585938</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>1467.199951171875</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>1487.099975585938</v>
+      </c>
+      <c r="F1694" t="n">
+        <v>1487.099975585938</v>
+      </c>
+      <c r="G1694" t="n">
+        <v>611930</v>
+      </c>
+      <c r="H1694" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1694" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1694" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1694" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1694" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1694" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1694" t="inlineStr"/>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="2" t="n">
+        <v>45457.63541666666</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>1487.150024414062</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>1487.900024414062</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>1472</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>1483.050048828125</v>
+      </c>
+      <c r="F1695" t="n">
+        <v>1483.050048828125</v>
+      </c>
+      <c r="G1695" t="n">
+        <v>335686</v>
+      </c>
+      <c r="H1695" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1695" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1695" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1695" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1695" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1695" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1695" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -95053,7 +95053,9 @@
       <c r="Q1689" t="n">
         <v>0</v>
       </c>
-      <c r="R1689" t="inlineStr"/>
+      <c r="R1689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1690">
       <c r="A1690" s="2" t="n">
@@ -95107,7 +95109,9 @@
       <c r="Q1690" t="n">
         <v>0</v>
       </c>
-      <c r="R1690" t="inlineStr"/>
+      <c r="R1690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1691">
       <c r="A1691" s="2" t="n">
@@ -95161,7 +95165,9 @@
       <c r="Q1691" t="n">
         <v>0</v>
       </c>
-      <c r="R1691" t="inlineStr"/>
+      <c r="R1691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1692">
       <c r="A1692" s="2" t="n">
@@ -95215,7 +95221,9 @@
       <c r="Q1692" t="n">
         <v>0</v>
       </c>
-      <c r="R1692" t="inlineStr"/>
+      <c r="R1692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1693">
       <c r="A1693" s="2" t="n">
@@ -95269,7 +95277,9 @@
       <c r="Q1693" t="n">
         <v>0</v>
       </c>
-      <c r="R1693" t="inlineStr"/>
+      <c r="R1693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1694">
       <c r="A1694" s="2" t="n">
@@ -95323,7 +95333,9 @@
       <c r="Q1694" t="n">
         <v>0</v>
       </c>
-      <c r="R1694" t="inlineStr"/>
+      <c r="R1694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1695">
       <c r="A1695" s="2" t="n">
@@ -95377,7 +95389,9 @@
       <c r="Q1695" t="n">
         <v>0</v>
       </c>
-      <c r="R1695" t="inlineStr"/>
+      <c r="R1695" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1695"/>
+  <dimension ref="A1:R1702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95045,7 +95045,7 @@
         <v>24</v>
       </c>
       <c r="O1689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1689" t="n">
         <v>0</v>
@@ -95392,6 +95392,384 @@
       <c r="R1695" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="2" t="n">
+        <v>45461.38541666666</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>1504.849975585938</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>1514.75</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>1470.099975585938</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>1497.25</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>1497.25</v>
+      </c>
+      <c r="G1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1696" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1696" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1696" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1696" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1696" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1696" t="inlineStr"/>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="2" t="n">
+        <v>45461.42708333334</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>1496.050048828125</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>1505</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>1490</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>1502.949951171875</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>1502.949951171875</v>
+      </c>
+      <c r="G1697" t="n">
+        <v>208475</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1697" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1697" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1697" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1697" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1697" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1697" t="inlineStr"/>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="2" t="n">
+        <v>45461.46875</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>1502.849975585938</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>1502.900024414062</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>1494.25</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>1497.949951171875</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>1497.949951171875</v>
+      </c>
+      <c r="G1698" t="n">
+        <v>88760</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1698" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1698" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1698" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1698" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1698" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1698" t="inlineStr"/>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="2" t="n">
+        <v>45461.51041666666</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>1497.949951171875</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>1508</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>1496</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>1499.25</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>1499.25</v>
+      </c>
+      <c r="G1699" t="n">
+        <v>167768</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1699" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1699" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1699" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1699" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1699" t="inlineStr"/>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="2" t="n">
+        <v>45461.55208333334</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>1499.300048828125</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>1500.75</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>1493</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>1497.849975585938</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>1497.849975585938</v>
+      </c>
+      <c r="G1700" t="n">
+        <v>117023</v>
+      </c>
+      <c r="H1700" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1700" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1700" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1700" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1700" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1700" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1700" t="inlineStr"/>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="2" t="n">
+        <v>45461.59375</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>1497.449951171875</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>1497.5</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>1487</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>1491</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>1491</v>
+      </c>
+      <c r="G1701" t="n">
+        <v>226347</v>
+      </c>
+      <c r="H1701" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1701" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1701" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1701" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1701" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1701" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1701" t="inlineStr"/>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="2" t="n">
+        <v>45461.63541666666</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>1490.550048828125</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>1505</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>1489</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>1496.150024414062</v>
+      </c>
+      <c r="F1702" t="n">
+        <v>1496.150024414062</v>
+      </c>
+      <c r="G1702" t="n">
+        <v>210038</v>
+      </c>
+      <c r="H1702" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1702" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1702" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1702" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1702" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1702" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1702" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1702"/>
+  <dimension ref="A1:R1709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95445,7 +95445,9 @@
       <c r="Q1696" t="n">
         <v>0</v>
       </c>
-      <c r="R1696" t="inlineStr"/>
+      <c r="R1696" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1697">
       <c r="A1697" s="2" t="n">
@@ -95499,7 +95501,9 @@
       <c r="Q1697" t="n">
         <v>0</v>
       </c>
-      <c r="R1697" t="inlineStr"/>
+      <c r="R1697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1698">
       <c r="A1698" s="2" t="n">
@@ -95553,7 +95557,9 @@
       <c r="Q1698" t="n">
         <v>0</v>
       </c>
-      <c r="R1698" t="inlineStr"/>
+      <c r="R1698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1699">
       <c r="A1699" s="2" t="n">
@@ -95607,7 +95613,9 @@
       <c r="Q1699" t="n">
         <v>0</v>
       </c>
-      <c r="R1699" t="inlineStr"/>
+      <c r="R1699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1700">
       <c r="A1700" s="2" t="n">
@@ -95661,7 +95669,9 @@
       <c r="Q1700" t="n">
         <v>0</v>
       </c>
-      <c r="R1700" t="inlineStr"/>
+      <c r="R1700" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1701">
       <c r="A1701" s="2" t="n">
@@ -95715,7 +95725,9 @@
       <c r="Q1701" t="n">
         <v>0</v>
       </c>
-      <c r="R1701" t="inlineStr"/>
+      <c r="R1701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1702">
       <c r="A1702" s="2" t="n">
@@ -95769,7 +95781,387 @@
       <c r="Q1702" t="n">
         <v>0</v>
       </c>
-      <c r="R1702" t="inlineStr"/>
+      <c r="R1702" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="2" t="n">
+        <v>45462.38541666666</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>1509.300048828125</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>1520</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>1427.099975585938</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>1486</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>1486</v>
+      </c>
+      <c r="G1703" t="n">
+        <v>1212092</v>
+      </c>
+      <c r="H1703" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1703" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1703" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1703" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1703" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1703" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1703" t="inlineStr"/>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="2" t="n">
+        <v>45462.42708333334</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>1486.5</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>1493.75</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>1476</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>1486.949951171875</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>1486.949951171875</v>
+      </c>
+      <c r="G1704" t="n">
+        <v>306671</v>
+      </c>
+      <c r="H1704" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1704" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1704" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1704" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1704" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1704" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1704" t="inlineStr"/>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="2" t="n">
+        <v>45462.46875</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>1486.949951171875</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>1510</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>1486.349975585938</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G1705" t="n">
+        <v>621606</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1705" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1705" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1705" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1705" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1705" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1705" t="inlineStr"/>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="2" t="n">
+        <v>45462.51041666666</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>1502</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>1502</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>1491.550048828125</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>1498.199951171875</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>1498.199951171875</v>
+      </c>
+      <c r="G1706" t="n">
+        <v>104811</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1706" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1706" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1706" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1706" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1706" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1706" t="inlineStr"/>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="2" t="n">
+        <v>45462.55208333334</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>1498.199951171875</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>1499.949951171875</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>1490</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>1495</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>1495</v>
+      </c>
+      <c r="G1707" t="n">
+        <v>92862</v>
+      </c>
+      <c r="H1707" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1707" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1707" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1707" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1707" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1707" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1707" t="inlineStr"/>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="2" t="n">
+        <v>45462.59375</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>1495.599975585938</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>1499.800048828125</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>1478</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>1483</v>
+      </c>
+      <c r="F1708" t="n">
+        <v>1483</v>
+      </c>
+      <c r="G1708" t="n">
+        <v>227762</v>
+      </c>
+      <c r="H1708" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1708" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1708" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1708" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1708" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1708" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1708" t="inlineStr"/>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="2" t="n">
+        <v>45462.63541666666</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>1483</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>1490.699951171875</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>1481.5</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>1486.050048828125</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>1486.050048828125</v>
+      </c>
+      <c r="G1709" t="n">
+        <v>107905</v>
+      </c>
+      <c r="H1709" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1709" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1709" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1709" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1709" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1709" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1709" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1709"/>
+  <dimension ref="A1:R1730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -95829,7 +95829,7 @@
         <v>25</v>
       </c>
       <c r="O1703" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P1703" t="n">
         <v>0</v>
@@ -95837,7 +95837,9 @@
       <c r="Q1703" t="n">
         <v>0</v>
       </c>
-      <c r="R1703" t="inlineStr"/>
+      <c r="R1703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1704">
       <c r="A1704" s="2" t="n">
@@ -95891,7 +95893,9 @@
       <c r="Q1704" t="n">
         <v>0</v>
       </c>
-      <c r="R1704" t="inlineStr"/>
+      <c r="R1704" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1705">
       <c r="A1705" s="2" t="n">
@@ -95945,7 +95949,9 @@
       <c r="Q1705" t="n">
         <v>0</v>
       </c>
-      <c r="R1705" t="inlineStr"/>
+      <c r="R1705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1706">
       <c r="A1706" s="2" t="n">
@@ -95999,7 +96005,9 @@
       <c r="Q1706" t="n">
         <v>0</v>
       </c>
-      <c r="R1706" t="inlineStr"/>
+      <c r="R1706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1707">
       <c r="A1707" s="2" t="n">
@@ -96053,7 +96061,9 @@
       <c r="Q1707" t="n">
         <v>0</v>
       </c>
-      <c r="R1707" t="inlineStr"/>
+      <c r="R1707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1708">
       <c r="A1708" s="2" t="n">
@@ -96107,7 +96117,9 @@
       <c r="Q1708" t="n">
         <v>0</v>
       </c>
-      <c r="R1708" t="inlineStr"/>
+      <c r="R1708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1709">
       <c r="A1709" s="2" t="n">
@@ -96161,7 +96173,1143 @@
       <c r="Q1709" t="n">
         <v>0</v>
       </c>
-      <c r="R1709" t="inlineStr"/>
+      <c r="R1709" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="2" t="n">
+        <v>45463.38541666666</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>1475.900024414062</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>1495.699951171875</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>1468.449951171875</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>1482.900024414062</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>1482.900024414062</v>
+      </c>
+      <c r="G1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1710" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1710" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1710" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1710" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1710" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1710" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1710" t="inlineStr"/>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45463.42708333334</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>1482.050048828125</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>1486.5</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>1477.050048828125</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>1484.099975585938</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>1484.099975585938</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>106104</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1711" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1711" t="inlineStr"/>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45463.46875</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>1484.099975585938</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>1485.949951171875</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>1480.050048828125</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>1480.300048828125</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>1480.300048828125</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>55191</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1712" t="inlineStr"/>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45463.51041666666</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>1481.300048828125</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>1482.800048828125</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>1476.25</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>1477.75</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>1477.75</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>112256</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1713" t="inlineStr"/>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45463.55208333334</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>1477.75</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>1482.900024414062</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>1472.550048828125</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>1481.550048828125</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>1481.550048828125</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>107318</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1714" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1714" t="inlineStr"/>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45463.59375</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>1481.699951171875</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>1492.800048828125</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>1479</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>1484</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>1484</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>234896</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1715" t="inlineStr"/>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45463.63541666666</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>1484.949951171875</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>1507.75</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>1484</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>1495.900024414062</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>1495.900024414062</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>190476</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1716" t="inlineStr"/>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45464.38541666666</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>1500.599975585938</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>1561.650024414062</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>1498.25</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>1539.800048828125</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>1539.800048828125</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>1464082</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45464.42708333334</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>1538.050048828125</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>1570</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>1523.449951171875</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>1556.099975585938</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>1556.099975585938</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>1000819</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45464.46875</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>1556.550048828125</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>1570</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>1545.050048828125</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>1546.949951171875</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>1546.949951171875</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>602313</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45464.51041666666</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>1547.599975585938</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>1555.650024414062</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>1534.099975585938</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>1544.849975585938</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>1544.849975585938</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>370937</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45464.55208333334</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>1545</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>1571.699951171875</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>1544.849975585938</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>1562.300048828125</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>1562.300048828125</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>612139</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45464.59375</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>1562.5</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>1594.699951171875</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>1544.650024414062</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>1591.050048828125</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>1591.050048828125</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>1893142</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45464.63541666666</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>1592.900024414062</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>1612.300048828125</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>1580</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>1595</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>1595</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>1343294</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1723" t="inlineStr"/>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45467.38541666666</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>1591.150024414062</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>1689.849975585938</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>1589</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>1628.949951171875</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>1628.949951171875</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1724" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1724" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1724" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1724" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1724" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1724" t="inlineStr"/>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="2" t="n">
+        <v>45467.42708333334</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>1628.5</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>1631.550048828125</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>1609</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>1620.949951171875</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>1620.949951171875</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>449153</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1725" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1725" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1725" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1725" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1725" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1725" t="inlineStr"/>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="2" t="n">
+        <v>45467.46875</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>1621</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>1645</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>1619.099975585938</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>1629.400024414062</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>1629.400024414062</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>299527</v>
+      </c>
+      <c r="H1726" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1726" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1726" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1726" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1726" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1726" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1726" t="inlineStr"/>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="2" t="n">
+        <v>45467.51041666666</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>1630.650024414062</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>1634.949951171875</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>1624.050048828125</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>1627.5</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>1627.5</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>113618</v>
+      </c>
+      <c r="H1727" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1727" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1727" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1727" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1727" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1727" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1727" t="inlineStr"/>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="2" t="n">
+        <v>45467.55208333334</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>1627.550048828125</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>1630.449951171875</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>1618.199951171875</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>1620.099975585938</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>1620.099975585938</v>
+      </c>
+      <c r="G1728" t="n">
+        <v>159113</v>
+      </c>
+      <c r="H1728" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1728" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1728" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1728" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1728" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1728" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1728" t="inlineStr"/>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="2" t="n">
+        <v>45467.59375</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>1620.150024414062</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>1625</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>1610.050048828125</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>1613.900024414062</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>1613.900024414062</v>
+      </c>
+      <c r="G1729" t="n">
+        <v>257707</v>
+      </c>
+      <c r="H1729" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1729" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1729" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1729" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1729" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1729" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1729" t="inlineStr"/>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="2" t="n">
+        <v>45467.63541666666</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>1613</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>1620</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>1609.800048828125</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>1609.800048828125</v>
+      </c>
+      <c r="G1730" t="n">
+        <v>272671</v>
+      </c>
+      <c r="H1730" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1730" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1730" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1730" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1730" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1730" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1730" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1730"/>
+  <dimension ref="A1:R1744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96229,7 +96229,9 @@
       <c r="Q1710" t="n">
         <v>0</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
@@ -96283,7 +96285,9 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
@@ -96337,7 +96341,9 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96391,7 +96397,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96445,7 +96453,9 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
@@ -96499,7 +96509,9 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
@@ -96553,7 +96565,9 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1717">
       <c r="A1717" s="2" t="n">
@@ -96607,7 +96621,9 @@
       <c r="Q1717" t="n">
         <v>0</v>
       </c>
-      <c r="R1717" t="inlineStr"/>
+      <c r="R1717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
@@ -96661,7 +96677,9 @@
       <c r="Q1718" t="n">
         <v>0</v>
       </c>
-      <c r="R1718" t="inlineStr"/>
+      <c r="R1718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1719">
       <c r="A1719" s="2" t="n">
@@ -96715,7 +96733,9 @@
       <c r="Q1719" t="n">
         <v>0</v>
       </c>
-      <c r="R1719" t="inlineStr"/>
+      <c r="R1719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
@@ -96769,7 +96789,9 @@
       <c r="Q1720" t="n">
         <v>0</v>
       </c>
-      <c r="R1720" t="inlineStr"/>
+      <c r="R1720" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1721">
       <c r="A1721" s="2" t="n">
@@ -96823,7 +96845,9 @@
       <c r="Q1721" t="n">
         <v>0</v>
       </c>
-      <c r="R1721" t="inlineStr"/>
+      <c r="R1721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1722">
       <c r="A1722" s="2" t="n">
@@ -96877,7 +96901,9 @@
       <c r="Q1722" t="n">
         <v>0</v>
       </c>
-      <c r="R1722" t="inlineStr"/>
+      <c r="R1722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
@@ -96931,7 +96957,9 @@
       <c r="Q1723" t="n">
         <v>0</v>
       </c>
-      <c r="R1723" t="inlineStr"/>
+      <c r="R1723" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1724">
       <c r="A1724" s="2" t="n">
@@ -96977,7 +97005,7 @@
         <v>26</v>
       </c>
       <c r="O1724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1724" t="n">
         <v>0</v>
@@ -96985,7 +97013,9 @@
       <c r="Q1724" t="n">
         <v>0</v>
       </c>
-      <c r="R1724" t="inlineStr"/>
+      <c r="R1724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1725">
       <c r="A1725" s="2" t="n">
@@ -97039,7 +97069,9 @@
       <c r="Q1725" t="n">
         <v>0</v>
       </c>
-      <c r="R1725" t="inlineStr"/>
+      <c r="R1725" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1726">
       <c r="A1726" s="2" t="n">
@@ -97093,7 +97125,9 @@
       <c r="Q1726" t="n">
         <v>0</v>
       </c>
-      <c r="R1726" t="inlineStr"/>
+      <c r="R1726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1727">
       <c r="A1727" s="2" t="n">
@@ -97147,7 +97181,9 @@
       <c r="Q1727" t="n">
         <v>0</v>
       </c>
-      <c r="R1727" t="inlineStr"/>
+      <c r="R1727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1728">
       <c r="A1728" s="2" t="n">
@@ -97201,7 +97237,9 @@
       <c r="Q1728" t="n">
         <v>0</v>
       </c>
-      <c r="R1728" t="inlineStr"/>
+      <c r="R1728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1729">
       <c r="A1729" s="2" t="n">
@@ -97255,7 +97293,9 @@
       <c r="Q1729" t="n">
         <v>0</v>
       </c>
-      <c r="R1729" t="inlineStr"/>
+      <c r="R1729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1730">
       <c r="A1730" s="2" t="n">
@@ -97309,7 +97349,765 @@
       <c r="Q1730" t="n">
         <v>0</v>
       </c>
-      <c r="R1730" t="inlineStr"/>
+      <c r="R1730" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="2" t="n">
+        <v>45468.38541666666</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>1638</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>1667.400024414062</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>1590.75</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>1606.650024414062</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>1606.650024414062</v>
+      </c>
+      <c r="G1731" t="n">
+        <v>855123</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1731" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1731" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1731" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1731" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1731" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1731" t="inlineStr"/>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="2" t="n">
+        <v>45468.42708333334</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>1607.400024414062</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>1608.900024414062</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>1602</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>1605.199951171875</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>1605.199951171875</v>
+      </c>
+      <c r="G1732" t="n">
+        <v>88654</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1732" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1732" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1732" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1732" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1732" t="inlineStr"/>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="2" t="n">
+        <v>45468.46875</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>1605.699951171875</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>1610.099975585938</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>1602.550048828125</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>1610.099975585938</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>1610.099975585938</v>
+      </c>
+      <c r="G1733" t="n">
+        <v>104898</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1733" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1733" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1733" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1733" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1733" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1733" t="inlineStr"/>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="2" t="n">
+        <v>45468.51041666666</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>1610.949951171875</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>1619</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>1610</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>1610.699951171875</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>1610.699951171875</v>
+      </c>
+      <c r="G1734" t="n">
+        <v>166505</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1734" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1734" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1734" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1734" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1734" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1734" t="inlineStr"/>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="2" t="n">
+        <v>45468.55208333334</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>1610.650024414062</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>1614</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>1606.050048828125</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>1610.699951171875</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>1610.699951171875</v>
+      </c>
+      <c r="G1735" t="n">
+        <v>114485</v>
+      </c>
+      <c r="H1735" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1735" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1735" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1735" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1735" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1735" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1735" t="inlineStr"/>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="2" t="n">
+        <v>45468.59375</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>1610.699951171875</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>1617.25</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>1615.75</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>1615.75</v>
+      </c>
+      <c r="G1736" t="n">
+        <v>243744</v>
+      </c>
+      <c r="H1736" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1736" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1736" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1736" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1736" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1736" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1736" t="inlineStr"/>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="2" t="n">
+        <v>45468.63541666666</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>1616.900024414062</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>1627</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>1613.449951171875</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>1618.150024414062</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>1618.150024414062</v>
+      </c>
+      <c r="G1737" t="n">
+        <v>225085</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1737" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1737" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1737" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1737" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1737" t="inlineStr"/>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="2" t="n">
+        <v>45469.38541666666</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>1632.5</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>1644.5</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>1615.5</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>1628.800048828125</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>1628.800048828125</v>
+      </c>
+      <c r="G1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1738" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1738" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1738" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1738" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1738" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1738" t="inlineStr"/>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="2" t="n">
+        <v>45469.42708333334</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>1628.199951171875</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>1644.5</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>1624.449951171875</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>1641</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>1641</v>
+      </c>
+      <c r="G1739" t="n">
+        <v>190748</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1739" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1739" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1739" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1739" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1739" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1739" t="inlineStr"/>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="2" t="n">
+        <v>45469.46875</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>1641</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>1670</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>1635.050048828125</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>1661.300048828125</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>1661.300048828125</v>
+      </c>
+      <c r="G1740" t="n">
+        <v>1118395</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1740" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1740" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1740" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1740" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1740" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1740" t="inlineStr"/>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="2" t="n">
+        <v>45469.51041666666</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>1661.349975585938</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>1690</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>1659.699951171875</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>1675.449951171875</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>1675.449951171875</v>
+      </c>
+      <c r="G1741" t="n">
+        <v>680326</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1741" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1741" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1741" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1741" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1741" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1741" t="inlineStr"/>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="2" t="n">
+        <v>45469.55208333334</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>1675.25</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>1732.849975585938</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>1672.349975585938</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>1728</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>1728</v>
+      </c>
+      <c r="G1742" t="n">
+        <v>1437818</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1742" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1742" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1742" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1742" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1742" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1742" t="inlineStr"/>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="2" t="n">
+        <v>45469.59375</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>1727</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>1754.699951171875</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>1714.650024414062</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>1741.800048828125</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>1741.800048828125</v>
+      </c>
+      <c r="G1743" t="n">
+        <v>2247712</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1743" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1743" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1743" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1743" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1743" t="inlineStr"/>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="2" t="n">
+        <v>45469.63541666666</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>1741.800048828125</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>1817.050048828125</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>1741.800048828125</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>1764</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>1764</v>
+      </c>
+      <c r="G1744" t="n">
+        <v>1191566</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1744" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1744" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1744" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1744" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1744" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1744"/>
+  <dimension ref="A1:R1751"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -97405,7 +97405,9 @@
       <c r="Q1731" t="n">
         <v>0</v>
       </c>
-      <c r="R1731" t="inlineStr"/>
+      <c r="R1731" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1732">
       <c r="A1732" s="2" t="n">
@@ -97459,7 +97461,9 @@
       <c r="Q1732" t="n">
         <v>0</v>
       </c>
-      <c r="R1732" t="inlineStr"/>
+      <c r="R1732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1733">
       <c r="A1733" s="2" t="n">
@@ -97513,7 +97517,9 @@
       <c r="Q1733" t="n">
         <v>0</v>
       </c>
-      <c r="R1733" t="inlineStr"/>
+      <c r="R1733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1734">
       <c r="A1734" s="2" t="n">
@@ -97567,7 +97573,9 @@
       <c r="Q1734" t="n">
         <v>0</v>
       </c>
-      <c r="R1734" t="inlineStr"/>
+      <c r="R1734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
@@ -97621,7 +97629,9 @@
       <c r="Q1735" t="n">
         <v>0</v>
       </c>
-      <c r="R1735" t="inlineStr"/>
+      <c r="R1735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1736">
       <c r="A1736" s="2" t="n">
@@ -97675,7 +97685,9 @@
       <c r="Q1736" t="n">
         <v>0</v>
       </c>
-      <c r="R1736" t="inlineStr"/>
+      <c r="R1736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1737">
       <c r="A1737" s="2" t="n">
@@ -97729,7 +97741,9 @@
       <c r="Q1737" t="n">
         <v>0</v>
       </c>
-      <c r="R1737" t="inlineStr"/>
+      <c r="R1737" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1738">
       <c r="A1738" s="2" t="n">
@@ -97783,7 +97797,9 @@
       <c r="Q1738" t="n">
         <v>0</v>
       </c>
-      <c r="R1738" t="inlineStr"/>
+      <c r="R1738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1739">
       <c r="A1739" s="2" t="n">
@@ -97837,7 +97853,9 @@
       <c r="Q1739" t="n">
         <v>0</v>
       </c>
-      <c r="R1739" t="inlineStr"/>
+      <c r="R1739" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1740">
       <c r="A1740" s="2" t="n">
@@ -97891,7 +97909,9 @@
       <c r="Q1740" t="n">
         <v>0</v>
       </c>
-      <c r="R1740" t="inlineStr"/>
+      <c r="R1740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
@@ -97945,7 +97965,9 @@
       <c r="Q1741" t="n">
         <v>0</v>
       </c>
-      <c r="R1741" t="inlineStr"/>
+      <c r="R1741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1742">
       <c r="A1742" s="2" t="n">
@@ -97999,7 +98021,9 @@
       <c r="Q1742" t="n">
         <v>0</v>
       </c>
-      <c r="R1742" t="inlineStr"/>
+      <c r="R1742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1743">
       <c r="A1743" s="2" t="n">
@@ -98053,7 +98077,9 @@
       <c r="Q1743" t="n">
         <v>0</v>
       </c>
-      <c r="R1743" t="inlineStr"/>
+      <c r="R1743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1744">
       <c r="A1744" s="2" t="n">
@@ -98107,7 +98133,387 @@
       <c r="Q1744" t="n">
         <v>0</v>
       </c>
-      <c r="R1744" t="inlineStr"/>
+      <c r="R1744" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="2" t="n">
+        <v>45470.38541666666</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>1809</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>1891.199951171875</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>1787.25</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>1876.550048828125</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>1876.550048828125</v>
+      </c>
+      <c r="G1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1745" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1745" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1745" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1745" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1745" t="inlineStr"/>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="2" t="n">
+        <v>45470.42708333334</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>1878.800048828125</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>1896.5</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>1842</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>1857</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>1857</v>
+      </c>
+      <c r="G1746" t="n">
+        <v>2105971</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1746" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1746" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1746" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1746" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1746" t="inlineStr"/>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="2" t="n">
+        <v>45470.46875</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>1857.849975585938</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>1857.849975585938</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>1822.349975585938</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>1844.849975585938</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>1844.849975585938</v>
+      </c>
+      <c r="G1747" t="n">
+        <v>1067745</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1747" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1747" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1747" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1747" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1747" t="inlineStr"/>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="2" t="n">
+        <v>45470.51041666666</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>1845</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>1845</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>1821.050048828125</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>1826.400024414062</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>1826.400024414062</v>
+      </c>
+      <c r="G1748" t="n">
+        <v>440007</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1748" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1748" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1748" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1748" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1748" t="inlineStr"/>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="2" t="n">
+        <v>45470.55208333334</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>1826.650024414062</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>1833.599975585938</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>1790</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>1798</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>1798</v>
+      </c>
+      <c r="G1749" t="n">
+        <v>778709</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1749" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1749" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1749" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1749" t="inlineStr"/>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="2" t="n">
+        <v>45470.59375</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>1798</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>1841</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>1798</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>1807.099975585938</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>1807.099975585938</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>976221</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1750" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1750" t="inlineStr"/>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="2" t="n">
+        <v>45470.63541666666</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>1809.349975585938</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>1833</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>1817.75</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>1817.75</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>432503</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1751" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1751" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1751"/>
+  <dimension ref="A1:R1758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98189,7 +98189,9 @@
       <c r="Q1745" t="n">
         <v>0</v>
       </c>
-      <c r="R1745" t="inlineStr"/>
+      <c r="R1745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1746">
       <c r="A1746" s="2" t="n">
@@ -98235,7 +98237,7 @@
         <v>26</v>
       </c>
       <c r="O1746" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1746" t="n">
         <v>0</v>
@@ -98243,7 +98245,9 @@
       <c r="Q1746" t="n">
         <v>0</v>
       </c>
-      <c r="R1746" t="inlineStr"/>
+      <c r="R1746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1747">
       <c r="A1747" s="2" t="n">
@@ -98297,7 +98301,9 @@
       <c r="Q1747" t="n">
         <v>0</v>
       </c>
-      <c r="R1747" t="inlineStr"/>
+      <c r="R1747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1748">
       <c r="A1748" s="2" t="n">
@@ -98351,7 +98357,9 @@
       <c r="Q1748" t="n">
         <v>0</v>
       </c>
-      <c r="R1748" t="inlineStr"/>
+      <c r="R1748" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1749">
       <c r="A1749" s="2" t="n">
@@ -98405,7 +98413,9 @@
       <c r="Q1749" t="n">
         <v>0</v>
       </c>
-      <c r="R1749" t="inlineStr"/>
+      <c r="R1749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1750">
       <c r="A1750" s="2" t="n">
@@ -98459,7 +98469,9 @@
       <c r="Q1750" t="n">
         <v>0</v>
       </c>
-      <c r="R1750" t="inlineStr"/>
+      <c r="R1750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1751">
       <c r="A1751" s="2" t="n">
@@ -98513,7 +98525,387 @@
       <c r="Q1751" t="n">
         <v>0</v>
       </c>
-      <c r="R1751" t="inlineStr"/>
+      <c r="R1751" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="2" t="n">
+        <v>45471.38541666666</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>1837.849975585938</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>1872</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>1790</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>1838</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>1838</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1752" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1752" t="inlineStr"/>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="2" t="n">
+        <v>45471.42708333334</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>1838</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>1843.449951171875</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>1821.300048828125</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>1838.699951171875</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>1838.699951171875</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>264716</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1753" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1753" t="inlineStr"/>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45471.46875</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>1838.699951171875</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>1845</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>1825.650024414062</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>1833.199951171875</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>1833.199951171875</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>404442</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1754" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1754" t="inlineStr"/>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45471.51041666666</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>1833.5</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>1838.5</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>1825</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>1835</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>1835</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>138506</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1755" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1755" t="inlineStr"/>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45471.55208333334</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>1835.699951171875</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>1858.800048828125</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>1832</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>1853.199951171875</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>1853.199951171875</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>316766</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1756" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1756" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1756" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1756" t="inlineStr"/>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45471.59375</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>1853</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>1860.699951171875</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>1831.349975585938</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>1849</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>1849</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>444022</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1757" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1757" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1757" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1757" t="inlineStr"/>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45471.63541666666</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>1849.800048828125</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>1880</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>1848.400024414062</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>1859.849975585938</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>1859.849975585938</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>432841</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1758" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1758" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1758" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1758" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -98581,7 +98581,9 @@
       <c r="Q1752" t="n">
         <v>0</v>
       </c>
-      <c r="R1752" t="inlineStr"/>
+      <c r="R1752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1753">
       <c r="A1753" s="2" t="n">
@@ -98635,7 +98637,9 @@
       <c r="Q1753" t="n">
         <v>0</v>
       </c>
-      <c r="R1753" t="inlineStr"/>
+      <c r="R1753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1754">
       <c r="A1754" s="2" t="n">
@@ -98689,7 +98693,9 @@
       <c r="Q1754" t="n">
         <v>0</v>
       </c>
-      <c r="R1754" t="inlineStr"/>
+      <c r="R1754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1755">
       <c r="A1755" s="2" t="n">
@@ -98743,7 +98749,9 @@
       <c r="Q1755" t="n">
         <v>0</v>
       </c>
-      <c r="R1755" t="inlineStr"/>
+      <c r="R1755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1756">
       <c r="A1756" s="2" t="n">
@@ -98797,7 +98805,9 @@
       <c r="Q1756" t="n">
         <v>0</v>
       </c>
-      <c r="R1756" t="inlineStr"/>
+      <c r="R1756" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1757">
       <c r="A1757" s="2" t="n">
@@ -98851,7 +98861,9 @@
       <c r="Q1757" t="n">
         <v>0</v>
       </c>
-      <c r="R1757" t="inlineStr"/>
+      <c r="R1757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1758">
       <c r="A1758" s="2" t="n">
@@ -98905,7 +98917,9 @@
       <c r="Q1758" t="n">
         <v>0</v>
       </c>
-      <c r="R1758" t="inlineStr"/>
+      <c r="R1758" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1758"/>
+  <dimension ref="A1:R1765"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98921,6 +98921,384 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45474.38541666666</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>1850</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>1850</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>1791</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>1830</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>1830</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1759" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1759" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1759" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1759" t="inlineStr"/>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45474.42708333334</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>1830</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>1834</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>1815</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>1823</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>1823</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>175365</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1760" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1760" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1760" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1760" t="inlineStr"/>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45474.46875</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>1822.949951171875</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>1832</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>1816.699951171875</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>1823.800048828125</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>1823.800048828125</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>102535</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1761" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1761" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1761" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1761" t="inlineStr"/>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45474.51041666666</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>1823.300048828125</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>1832</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>1820</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>1824.150024414062</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>1824.150024414062</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>72104</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1762" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1762" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1762" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1762" t="inlineStr"/>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45474.55208333334</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>1825</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>1827</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>1820</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>1826.199951171875</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>1826.199951171875</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>66907</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1763" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1763" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1763" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1763" t="inlineStr"/>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45474.59375</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>1825.849975585938</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>1828</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>1816</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>1821.949951171875</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>1821.949951171875</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>123744</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1764" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1764" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1764" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1764" t="inlineStr"/>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45474.63541666666</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>1821.949951171875</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>1834.349975585938</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>1820.099975585938</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>1825.550048828125</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>1825.550048828125</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>121338</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1765" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1765" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1765" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1765" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1765"/>
+  <dimension ref="A1:R1772"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98909,7 +98909,7 @@
         <v>26</v>
       </c>
       <c r="O1758" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1758" t="n">
         <v>0</v>
@@ -98973,7 +98973,9 @@
       <c r="Q1759" t="n">
         <v>0</v>
       </c>
-      <c r="R1759" t="inlineStr"/>
+      <c r="R1759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1760">
       <c r="A1760" s="2" t="n">
@@ -99027,7 +99029,9 @@
       <c r="Q1760" t="n">
         <v>0</v>
       </c>
-      <c r="R1760" t="inlineStr"/>
+      <c r="R1760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1761">
       <c r="A1761" s="2" t="n">
@@ -99081,7 +99085,9 @@
       <c r="Q1761" t="n">
         <v>0</v>
       </c>
-      <c r="R1761" t="inlineStr"/>
+      <c r="R1761" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1762">
       <c r="A1762" s="2" t="n">
@@ -99135,7 +99141,9 @@
       <c r="Q1762" t="n">
         <v>0</v>
       </c>
-      <c r="R1762" t="inlineStr"/>
+      <c r="R1762" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1763">
       <c r="A1763" s="2" t="n">
@@ -99189,7 +99197,9 @@
       <c r="Q1763" t="n">
         <v>0</v>
       </c>
-      <c r="R1763" t="inlineStr"/>
+      <c r="R1763" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1764">
       <c r="A1764" s="2" t="n">
@@ -99243,7 +99253,9 @@
       <c r="Q1764" t="n">
         <v>0</v>
       </c>
-      <c r="R1764" t="inlineStr"/>
+      <c r="R1764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1765">
       <c r="A1765" s="2" t="n">
@@ -99297,7 +99309,387 @@
       <c r="Q1765" t="n">
         <v>0</v>
       </c>
-      <c r="R1765" t="inlineStr"/>
+      <c r="R1765" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45475.38541666666</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>1834.5</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>1865.599975585938</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>1833.050048828125</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>1840</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>1840</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1766" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1766" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1766" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1766" t="inlineStr"/>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45475.42708333334</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>1839.199951171875</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>1840</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>1824.400024414062</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>1829.800048828125</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>1829.800048828125</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>103791</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1767" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1767" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1767" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1767" t="inlineStr"/>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45475.46875</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>1829</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>1835.050048828125</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>1825</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>1827.25</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>1827.25</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>69601</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1768" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1768" t="inlineStr"/>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45475.51041666666</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>1827.25</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>1827.75</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>1778</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>1792.949951171875</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>1792.949951171875</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>214286</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1769" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1769" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1769" t="inlineStr"/>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45475.55208333334</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>1792.949951171875</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>1813.75</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>1790</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>1808</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>1808</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>105824</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1770" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1770" t="inlineStr"/>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45475.59375</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>1808.150024414062</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>1811.650024414062</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>1801</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>1802.349975585938</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>1802.349975585938</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>95758</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1771" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1771" t="inlineStr"/>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45475.63541666666</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>1802.300048828125</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>1810</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>1799.800048828125</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>1804.599975585938</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>1804.599975585938</v>
+      </c>
+      <c r="G1772" t="n">
+        <v>91049</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1772" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1772" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1772"/>
+  <dimension ref="A1:R1779"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99365,7 +99365,9 @@
       <c r="Q1766" t="n">
         <v>0</v>
       </c>
-      <c r="R1766" t="inlineStr"/>
+      <c r="R1766" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1767">
       <c r="A1767" s="2" t="n">
@@ -99419,7 +99421,9 @@
       <c r="Q1767" t="n">
         <v>0</v>
       </c>
-      <c r="R1767" t="inlineStr"/>
+      <c r="R1767" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1768">
       <c r="A1768" s="2" t="n">
@@ -99473,7 +99477,9 @@
       <c r="Q1768" t="n">
         <v>0</v>
       </c>
-      <c r="R1768" t="inlineStr"/>
+      <c r="R1768" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1769">
       <c r="A1769" s="2" t="n">
@@ -99527,7 +99533,9 @@
       <c r="Q1769" t="n">
         <v>0</v>
       </c>
-      <c r="R1769" t="inlineStr"/>
+      <c r="R1769" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1770">
       <c r="A1770" s="2" t="n">
@@ -99581,7 +99589,9 @@
       <c r="Q1770" t="n">
         <v>0</v>
       </c>
-      <c r="R1770" t="inlineStr"/>
+      <c r="R1770" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1771">
       <c r="A1771" s="2" t="n">
@@ -99635,7 +99645,9 @@
       <c r="Q1771" t="n">
         <v>0</v>
       </c>
-      <c r="R1771" t="inlineStr"/>
+      <c r="R1771" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1772">
       <c r="A1772" s="2" t="n">
@@ -99689,7 +99701,387 @@
       <c r="Q1772" t="n">
         <v>0</v>
       </c>
-      <c r="R1772" t="inlineStr"/>
+      <c r="R1772" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45476.38541666666</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>1812.699951171875</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>1816</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>1760</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>1771.949951171875</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>1771.949951171875</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1773" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1773" t="inlineStr"/>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45476.42708333334</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>1771</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>1771.949951171875</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>1762.099975585938</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>1765.599975585938</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>1765.599975585938</v>
+      </c>
+      <c r="G1774" t="n">
+        <v>123195</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1774" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1774" t="inlineStr"/>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45476.46875</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>1765.300048828125</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>1772.050048828125</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>1762.050048828125</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>1769.050048828125</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>1769.050048828125</v>
+      </c>
+      <c r="G1775" t="n">
+        <v>100187</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1775" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1775" t="inlineStr"/>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45476.51041666666</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>1769.050048828125</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>1771.449951171875</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>1765.150024414062</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>1770.300048828125</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>1770.300048828125</v>
+      </c>
+      <c r="G1776" t="n">
+        <v>69361</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1776" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1776" t="inlineStr"/>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="2" t="n">
+        <v>45476.55208333334</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>1770.300048828125</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>1779.449951171875</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>1768.150024414062</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>1772.550048828125</v>
+      </c>
+      <c r="F1777" t="n">
+        <v>1772.550048828125</v>
+      </c>
+      <c r="G1777" t="n">
+        <v>116858</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1777" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1777" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1777" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1777" t="inlineStr"/>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45476.59375</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>1772.5</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>1780</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>1760.050048828125</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>1780</v>
+      </c>
+      <c r="F1778" t="n">
+        <v>1780</v>
+      </c>
+      <c r="G1778" t="n">
+        <v>173702</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1778" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1778" t="inlineStr"/>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="2" t="n">
+        <v>45476.63541666666</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>1779.800048828125</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>1785</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>1776</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>1779.699951171875</v>
+      </c>
+      <c r="F1779" t="n">
+        <v>1779.699951171875</v>
+      </c>
+      <c r="G1779" t="n">
+        <v>81081</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1779" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1779" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1779" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1779" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1779"/>
+  <dimension ref="A1:R1786"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99749,7 +99749,7 @@
         <v>27</v>
       </c>
       <c r="O1773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1773" t="n">
         <v>0</v>
@@ -99757,7 +99757,9 @@
       <c r="Q1773" t="n">
         <v>0</v>
       </c>
-      <c r="R1773" t="inlineStr"/>
+      <c r="R1773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1774">
       <c r="A1774" s="2" t="n">
@@ -99811,7 +99813,9 @@
       <c r="Q1774" t="n">
         <v>0</v>
       </c>
-      <c r="R1774" t="inlineStr"/>
+      <c r="R1774" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1775">
       <c r="A1775" s="2" t="n">
@@ -99865,7 +99869,9 @@
       <c r="Q1775" t="n">
         <v>0</v>
       </c>
-      <c r="R1775" t="inlineStr"/>
+      <c r="R1775" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1776">
       <c r="A1776" s="2" t="n">
@@ -99919,7 +99925,9 @@
       <c r="Q1776" t="n">
         <v>0</v>
       </c>
-      <c r="R1776" t="inlineStr"/>
+      <c r="R1776" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1777">
       <c r="A1777" s="2" t="n">
@@ -99973,7 +99981,9 @@
       <c r="Q1777" t="n">
         <v>0</v>
       </c>
-      <c r="R1777" t="inlineStr"/>
+      <c r="R1777" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1778">
       <c r="A1778" s="2" t="n">
@@ -100027,7 +100037,9 @@
       <c r="Q1778" t="n">
         <v>0</v>
       </c>
-      <c r="R1778" t="inlineStr"/>
+      <c r="R1778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1779">
       <c r="A1779" s="2" t="n">
@@ -100081,7 +100093,387 @@
       <c r="Q1779" t="n">
         <v>0</v>
       </c>
-      <c r="R1779" t="inlineStr"/>
+      <c r="R1779" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="2" t="n">
+        <v>45477.38541666666</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>1797</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>1797</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>1778.5</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>1785</v>
+      </c>
+      <c r="F1780" t="n">
+        <v>1785</v>
+      </c>
+      <c r="G1780" t="n">
+        <v>283402</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1780" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1780" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1780" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1780" t="inlineStr"/>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="2" t="n">
+        <v>45477.42708333334</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>1785</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>1785.800048828125</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>1764.550048828125</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>1770</v>
+      </c>
+      <c r="F1781" t="n">
+        <v>1770</v>
+      </c>
+      <c r="G1781" t="n">
+        <v>120081</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1781" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1781" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1781" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1781" t="inlineStr"/>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="2" t="n">
+        <v>45477.46875</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>1770</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>1783.25</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>1769</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>1777.050048828125</v>
+      </c>
+      <c r="F1782" t="n">
+        <v>1777.050048828125</v>
+      </c>
+      <c r="G1782" t="n">
+        <v>85254</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1782" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1782" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1782" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1782" t="inlineStr"/>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="2" t="n">
+        <v>45477.51041666666</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>1778.199951171875</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>1783.849975585938</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>1771.900024414062</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>1782.900024414062</v>
+      </c>
+      <c r="F1783" t="n">
+        <v>1782.900024414062</v>
+      </c>
+      <c r="G1783" t="n">
+        <v>100512</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1783" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1783" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1783" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1783" t="inlineStr"/>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45477.55208333334</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>1782.099975585938</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>1784</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>1774.900024414062</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>1779.849975585938</v>
+      </c>
+      <c r="F1784" t="n">
+        <v>1779.849975585938</v>
+      </c>
+      <c r="G1784" t="n">
+        <v>115961</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1784" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1784" t="inlineStr"/>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45477.59375</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>1780.449951171875</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>1789.949951171875</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>1776.75</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>1788.699951171875</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>1788.699951171875</v>
+      </c>
+      <c r="G1785" t="n">
+        <v>141049</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1785" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1785" t="inlineStr"/>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45477.63541666666</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>1789</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>1792.949951171875</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>1787.449951171875</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>1788.949951171875</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>1788.949951171875</v>
+      </c>
+      <c r="G1786" t="n">
+        <v>102895</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1786" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1786" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1786"/>
+  <dimension ref="A1:R1793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100149,7 +100149,9 @@
       <c r="Q1780" t="n">
         <v>0</v>
       </c>
-      <c r="R1780" t="inlineStr"/>
+      <c r="R1780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1781">
       <c r="A1781" s="2" t="n">
@@ -100203,7 +100205,9 @@
       <c r="Q1781" t="n">
         <v>0</v>
       </c>
-      <c r="R1781" t="inlineStr"/>
+      <c r="R1781" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1782">
       <c r="A1782" s="2" t="n">
@@ -100257,7 +100261,9 @@
       <c r="Q1782" t="n">
         <v>0</v>
       </c>
-      <c r="R1782" t="inlineStr"/>
+      <c r="R1782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1783">
       <c r="A1783" s="2" t="n">
@@ -100311,7 +100317,9 @@
       <c r="Q1783" t="n">
         <v>0</v>
       </c>
-      <c r="R1783" t="inlineStr"/>
+      <c r="R1783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1784">
       <c r="A1784" s="2" t="n">
@@ -100365,7 +100373,9 @@
       <c r="Q1784" t="n">
         <v>0</v>
       </c>
-      <c r="R1784" t="inlineStr"/>
+      <c r="R1784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1785">
       <c r="A1785" s="2" t="n">
@@ -100419,7 +100429,9 @@
       <c r="Q1785" t="n">
         <v>0</v>
       </c>
-      <c r="R1785" t="inlineStr"/>
+      <c r="R1785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
@@ -100473,7 +100485,387 @@
       <c r="Q1786" t="n">
         <v>0</v>
       </c>
-      <c r="R1786" t="inlineStr"/>
+      <c r="R1786" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45478.38541666666</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>1799.949951171875</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>1799.949951171875</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>1770.349975585938</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>1779.849975585938</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>1779.849975585938</v>
+      </c>
+      <c r="G1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1787" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1787" t="inlineStr"/>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45478.42708333334</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>1779.949951171875</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>1840</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>1779</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>1824.150024414062</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>1824.150024414062</v>
+      </c>
+      <c r="G1788" t="n">
+        <v>583406</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1788" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1788" t="inlineStr"/>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45478.46875</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>1822.650024414062</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>1822.650024414062</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>1780.900024414062</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>1808.25</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>1808.25</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>212295</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1789" t="inlineStr"/>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45478.51041666666</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>1807.949951171875</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>1819.949951171875</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>1799</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>1819</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>1819</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>190328</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1790" t="inlineStr"/>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45478.55208333334</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>1819.800048828125</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>1825</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>1815</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>1815</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>334297</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1791" t="inlineStr"/>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45478.59375</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>1814.550048828125</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>1837</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>1836.25</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>1836.25</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>330742</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1792" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1792" t="inlineStr"/>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45478.63541666666</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>1835.300048828125</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>1839</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>1821.599975585938</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>1828.949951171875</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>1828.949951171875</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>216940</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1793" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1793" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1793"/>
+  <dimension ref="A1:R1800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100541,7 +100541,9 @@
       <c r="Q1787" t="n">
         <v>0</v>
       </c>
-      <c r="R1787" t="inlineStr"/>
+      <c r="R1787" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1788">
       <c r="A1788" s="2" t="n">
@@ -100595,7 +100597,9 @@
       <c r="Q1788" t="n">
         <v>0</v>
       </c>
-      <c r="R1788" t="inlineStr"/>
+      <c r="R1788" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1789">
       <c r="A1789" s="2" t="n">
@@ -100649,7 +100653,9 @@
       <c r="Q1789" t="n">
         <v>0</v>
       </c>
-      <c r="R1789" t="inlineStr"/>
+      <c r="R1789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
@@ -100703,7 +100709,9 @@
       <c r="Q1790" t="n">
         <v>0</v>
       </c>
-      <c r="R1790" t="inlineStr"/>
+      <c r="R1790" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1791">
       <c r="A1791" s="2" t="n">
@@ -100757,7 +100765,9 @@
       <c r="Q1791" t="n">
         <v>0</v>
       </c>
-      <c r="R1791" t="inlineStr"/>
+      <c r="R1791" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1792">
       <c r="A1792" s="2" t="n">
@@ -100811,7 +100821,9 @@
       <c r="Q1792" t="n">
         <v>0</v>
       </c>
-      <c r="R1792" t="inlineStr"/>
+      <c r="R1792" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1793">
       <c r="A1793" s="2" t="n">
@@ -100865,7 +100877,387 @@
       <c r="Q1793" t="n">
         <v>0</v>
       </c>
-      <c r="R1793" t="inlineStr"/>
+      <c r="R1793" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45481.38541666666</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>1859</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>1861</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>1834.199951171875</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>1848.550048828125</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>1848.550048828125</v>
+      </c>
+      <c r="G1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1794" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1794" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1794" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1794" t="inlineStr"/>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45481.42708333334</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>1848.5</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>1849.5</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>1786.050048828125</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G1795" t="n">
+        <v>258284</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1795" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1795" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1795" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1795" t="inlineStr"/>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45481.46875</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>1801</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>1826.199951171875</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>1801</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>1804.349975585938</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>1804.349975585938</v>
+      </c>
+      <c r="G1796" t="n">
+        <v>118498</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1796" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1796" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1796" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1796" t="inlineStr"/>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45481.51041666666</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>1805.400024414062</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>1820.949951171875</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>1802.949951171875</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>1819.599975585938</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>1819.599975585938</v>
+      </c>
+      <c r="G1797" t="n">
+        <v>75506</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1797" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1797" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1797" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1797" t="inlineStr"/>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45481.55208333334</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>1820.650024414062</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>1821.800048828125</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>1810</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>1820.599975585938</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>1820.599975585938</v>
+      </c>
+      <c r="G1798" t="n">
+        <v>87304</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1798" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1798" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1798" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1798" t="inlineStr"/>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45481.59375</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>1820</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>1840</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>1819</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>1823.849975585938</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>1823.849975585938</v>
+      </c>
+      <c r="G1799" t="n">
+        <v>180117</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1799" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1799" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1799" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1799" t="inlineStr"/>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45481.63541666666</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>1822.300048828125</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>1829.5</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>1805.949951171875</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>1823.449951171875</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>1823.449951171875</v>
+      </c>
+      <c r="G1800" t="n">
+        <v>107390</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1800" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1800" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1800" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1800" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1800"/>
+  <dimension ref="A1:R1807"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100925,7 +100925,7 @@
         <v>28</v>
       </c>
       <c r="O1794" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1794" t="n">
         <v>0</v>
@@ -100933,7 +100933,9 @@
       <c r="Q1794" t="n">
         <v>0</v>
       </c>
-      <c r="R1794" t="inlineStr"/>
+      <c r="R1794" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
@@ -100987,7 +100989,9 @@
       <c r="Q1795" t="n">
         <v>0</v>
       </c>
-      <c r="R1795" t="inlineStr"/>
+      <c r="R1795" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1796">
       <c r="A1796" s="2" t="n">
@@ -101041,7 +101045,9 @@
       <c r="Q1796" t="n">
         <v>0</v>
       </c>
-      <c r="R1796" t="inlineStr"/>
+      <c r="R1796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1797">
       <c r="A1797" s="2" t="n">
@@ -101095,7 +101101,9 @@
       <c r="Q1797" t="n">
         <v>0</v>
       </c>
-      <c r="R1797" t="inlineStr"/>
+      <c r="R1797" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1798">
       <c r="A1798" s="2" t="n">
@@ -101149,7 +101157,9 @@
       <c r="Q1798" t="n">
         <v>0</v>
       </c>
-      <c r="R1798" t="inlineStr"/>
+      <c r="R1798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1799">
       <c r="A1799" s="2" t="n">
@@ -101203,7 +101213,9 @@
       <c r="Q1799" t="n">
         <v>0</v>
       </c>
-      <c r="R1799" t="inlineStr"/>
+      <c r="R1799" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1800">
       <c r="A1800" s="2" t="n">
@@ -101257,7 +101269,387 @@
       <c r="Q1800" t="n">
         <v>0</v>
       </c>
-      <c r="R1800" t="inlineStr"/>
+      <c r="R1800" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2" t="n">
+        <v>45482.38541666666</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>1833.449951171875</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>1838.25</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>1801.550048828125</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>1812</v>
+      </c>
+      <c r="F1801" t="n">
+        <v>1812</v>
+      </c>
+      <c r="G1801" t="n">
+        <v>301017</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1801" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1801" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1801" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1801" t="inlineStr"/>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2" t="n">
+        <v>45482.42708333334</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>1812</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>1812.650024414062</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>1738.400024414062</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>1785.75</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>1785.75</v>
+      </c>
+      <c r="G1802" t="n">
+        <v>268047</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1802" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1802" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1802" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1802" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1802" t="inlineStr"/>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2" t="n">
+        <v>45482.46875</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>1786</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>1790.5</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>1770</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>1781.199951171875</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>1781.199951171875</v>
+      </c>
+      <c r="G1803" t="n">
+        <v>74925</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1803" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1803" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1803" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1803" t="inlineStr"/>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2" t="n">
+        <v>45482.51041666666</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>1781.050048828125</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>1785</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>1774.25</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>1778.699951171875</v>
+      </c>
+      <c r="F1804" t="n">
+        <v>1778.699951171875</v>
+      </c>
+      <c r="G1804" t="n">
+        <v>57290</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1804" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1804" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1804" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1804" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1804" t="inlineStr"/>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2" t="n">
+        <v>45482.55208333334</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>1778.699951171875</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>1799.599975585938</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>1778.699951171875</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>1798.300048828125</v>
+      </c>
+      <c r="F1805" t="n">
+        <v>1798.300048828125</v>
+      </c>
+      <c r="G1805" t="n">
+        <v>58690</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1805" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1805" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1805" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1805" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1805" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1805" t="inlineStr"/>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2" t="n">
+        <v>45482.59375</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>1798</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>1798.150024414062</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>1780.199951171875</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>1792.400024414062</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>1792.400024414062</v>
+      </c>
+      <c r="G1806" t="n">
+        <v>101908</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1806" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1806" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1806" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1806" t="inlineStr"/>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2" t="n">
+        <v>45482.63541666666</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>1792.550048828125</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>1797</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>1787.25</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>1792.699951171875</v>
+      </c>
+      <c r="F1807" t="n">
+        <v>1792.699951171875</v>
+      </c>
+      <c r="G1807" t="n">
+        <v>68312</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1807" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1807" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1807" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1807" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1807" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1807"/>
+  <dimension ref="A1:R1814"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101325,7 +101325,9 @@
       <c r="Q1801" t="n">
         <v>0</v>
       </c>
-      <c r="R1801" t="inlineStr"/>
+      <c r="R1801" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1802">
       <c r="A1802" s="2" t="n">
@@ -101379,7 +101381,9 @@
       <c r="Q1802" t="n">
         <v>0</v>
       </c>
-      <c r="R1802" t="inlineStr"/>
+      <c r="R1802" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1803">
       <c r="A1803" s="2" t="n">
@@ -101433,7 +101437,9 @@
       <c r="Q1803" t="n">
         <v>0</v>
       </c>
-      <c r="R1803" t="inlineStr"/>
+      <c r="R1803" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1804">
       <c r="A1804" s="2" t="n">
@@ -101487,7 +101493,9 @@
       <c r="Q1804" t="n">
         <v>0</v>
       </c>
-      <c r="R1804" t="inlineStr"/>
+      <c r="R1804" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1805">
       <c r="A1805" s="2" t="n">
@@ -101541,7 +101549,9 @@
       <c r="Q1805" t="n">
         <v>0</v>
       </c>
-      <c r="R1805" t="inlineStr"/>
+      <c r="R1805" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1806">
       <c r="A1806" s="2" t="n">
@@ -101595,7 +101605,9 @@
       <c r="Q1806" t="n">
         <v>0</v>
       </c>
-      <c r="R1806" t="inlineStr"/>
+      <c r="R1806" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1807">
       <c r="A1807" s="2" t="n">
@@ -101649,7 +101661,387 @@
       <c r="Q1807" t="n">
         <v>0</v>
       </c>
-      <c r="R1807" t="inlineStr"/>
+      <c r="R1807" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45483.38541666666</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>1798.900024414062</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>1800.900024414062</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>1691.300048828125</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>1724.25</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>1724.25</v>
+      </c>
+      <c r="G1808" t="n">
+        <v>458130</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1808" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1808" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1808" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1808" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1808" t="inlineStr"/>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45483.42708333334</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>1724.949951171875</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>1740</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>1685.25</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>1725.099975585938</v>
+      </c>
+      <c r="F1809" t="n">
+        <v>1725.099975585938</v>
+      </c>
+      <c r="G1809" t="n">
+        <v>451978</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1809" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1809" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1809" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1809" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1809" t="inlineStr"/>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45483.46875</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>1725</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>1726.800048828125</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>1710.050048828125</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>1716.400024414062</v>
+      </c>
+      <c r="F1810" t="n">
+        <v>1716.400024414062</v>
+      </c>
+      <c r="G1810" t="n">
+        <v>161743</v>
+      </c>
+      <c r="H1810" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1810" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1810" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1810" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1810" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1810" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1810" t="inlineStr"/>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45483.51041666666</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>1717.75</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>1720.900024414062</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>1710.699951171875</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>1716</v>
+      </c>
+      <c r="F1811" t="n">
+        <v>1716</v>
+      </c>
+      <c r="G1811" t="n">
+        <v>98684</v>
+      </c>
+      <c r="H1811" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1811" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1811" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1811" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1811" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1811" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1811" t="inlineStr"/>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45483.55208333334</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>1715.449951171875</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>1715.949951171875</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>1701.449951171875</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>1707.900024414062</v>
+      </c>
+      <c r="F1812" t="n">
+        <v>1707.900024414062</v>
+      </c>
+      <c r="G1812" t="n">
+        <v>137659</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1812" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1812" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1812" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1812" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1812" t="inlineStr"/>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45483.59375</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>1707.099975585938</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>1735</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>1705.849975585938</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>1732.449951171875</v>
+      </c>
+      <c r="F1813" t="n">
+        <v>1732.449951171875</v>
+      </c>
+      <c r="G1813" t="n">
+        <v>235229</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1813" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1813" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1813" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1813" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1813" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1813" t="inlineStr"/>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45483.63541666666</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>1734</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>1744.5</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>1730.050048828125</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>1733.599975585938</v>
+      </c>
+      <c r="F1814" t="n">
+        <v>1733.599975585938</v>
+      </c>
+      <c r="G1814" t="n">
+        <v>117329</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1814" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1814" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1814" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1814" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1814" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1814" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1814"/>
+  <dimension ref="A1:R1821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101717,7 +101717,9 @@
       <c r="Q1808" t="n">
         <v>0</v>
       </c>
-      <c r="R1808" t="inlineStr"/>
+      <c r="R1808" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1809">
       <c r="A1809" s="2" t="n">
@@ -101763,7 +101765,7 @@
         <v>28</v>
       </c>
       <c r="O1809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1809" t="n">
         <v>0</v>
@@ -101771,7 +101773,9 @@
       <c r="Q1809" t="n">
         <v>0</v>
       </c>
-      <c r="R1809" t="inlineStr"/>
+      <c r="R1809" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1810">
       <c r="A1810" s="2" t="n">
@@ -101825,7 +101829,9 @@
       <c r="Q1810" t="n">
         <v>0</v>
       </c>
-      <c r="R1810" t="inlineStr"/>
+      <c r="R1810" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1811">
       <c r="A1811" s="2" t="n">
@@ -101879,7 +101885,9 @@
       <c r="Q1811" t="n">
         <v>0</v>
       </c>
-      <c r="R1811" t="inlineStr"/>
+      <c r="R1811" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1812">
       <c r="A1812" s="2" t="n">
@@ -101933,7 +101941,9 @@
       <c r="Q1812" t="n">
         <v>0</v>
       </c>
-      <c r="R1812" t="inlineStr"/>
+      <c r="R1812" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1813">
       <c r="A1813" s="2" t="n">
@@ -101987,7 +101997,9 @@
       <c r="Q1813" t="n">
         <v>0</v>
       </c>
-      <c r="R1813" t="inlineStr"/>
+      <c r="R1813" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1814">
       <c r="A1814" s="2" t="n">
@@ -102041,7 +102053,387 @@
       <c r="Q1814" t="n">
         <v>0</v>
       </c>
-      <c r="R1814" t="inlineStr"/>
+      <c r="R1814" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45484.38541666666</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>1741.949951171875</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>1741.949951171875</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>1703.050048828125</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>1714.5</v>
+      </c>
+      <c r="F1815" t="n">
+        <v>1714.5</v>
+      </c>
+      <c r="G1815" t="n">
+        <v>271187</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1815" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1815" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1815" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1815" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1815" t="inlineStr"/>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45484.42708333334</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>1714.5</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>1714.699951171875</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>1701</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>1709.949951171875</v>
+      </c>
+      <c r="F1816" t="n">
+        <v>1709.949951171875</v>
+      </c>
+      <c r="G1816" t="n">
+        <v>160069</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1816" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1816" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1816" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1816" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1816" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1816" t="inlineStr"/>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2" t="n">
+        <v>45484.46875</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>1709.949951171875</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>1717.550048828125</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>1709</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>1713</v>
+      </c>
+      <c r="F1817" t="n">
+        <v>1713</v>
+      </c>
+      <c r="G1817" t="n">
+        <v>86495</v>
+      </c>
+      <c r="H1817" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1817" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1817" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1817" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1817" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1817" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1817" t="inlineStr"/>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2" t="n">
+        <v>45484.51041666666</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>1713.699951171875</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>1714.349975585938</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>1708.099975585938</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>1712.150024414062</v>
+      </c>
+      <c r="F1818" t="n">
+        <v>1712.150024414062</v>
+      </c>
+      <c r="G1818" t="n">
+        <v>59025</v>
+      </c>
+      <c r="H1818" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1818" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1818" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1818" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1818" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1818" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1818" t="inlineStr"/>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45484.55208333334</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>1712.150024414062</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>1714.449951171875</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>1707</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>1713.949951171875</v>
+      </c>
+      <c r="F1819" t="n">
+        <v>1713.949951171875</v>
+      </c>
+      <c r="G1819" t="n">
+        <v>92010</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1819" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1819" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1819" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1819" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1819" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1819" t="inlineStr"/>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45484.59375</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>1713.849975585938</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>1715.349975585938</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>1710</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>1710.199951171875</v>
+      </c>
+      <c r="F1820" t="n">
+        <v>1710.199951171875</v>
+      </c>
+      <c r="G1820" t="n">
+        <v>120706</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1820" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1820" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1820" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1820" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1820" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1820" t="inlineStr"/>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45484.63541666666</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>1711.849975585938</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>1713.5</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>1710.050048828125</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>1711.449951171875</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>1711.449951171875</v>
+      </c>
+      <c r="G1821" t="n">
+        <v>59074</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1821" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1821" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1821" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1821" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1821" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1821" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1821"/>
+  <dimension ref="A1:R1828"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102109,7 +102109,9 @@
       <c r="Q1815" t="n">
         <v>0</v>
       </c>
-      <c r="R1815" t="inlineStr"/>
+      <c r="R1815" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1816">
       <c r="A1816" s="2" t="n">
@@ -102163,7 +102165,9 @@
       <c r="Q1816" t="n">
         <v>0</v>
       </c>
-      <c r="R1816" t="inlineStr"/>
+      <c r="R1816" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1817">
       <c r="A1817" s="2" t="n">
@@ -102217,7 +102221,9 @@
       <c r="Q1817" t="n">
         <v>0</v>
       </c>
-      <c r="R1817" t="inlineStr"/>
+      <c r="R1817" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1818">
       <c r="A1818" s="2" t="n">
@@ -102271,7 +102277,9 @@
       <c r="Q1818" t="n">
         <v>0</v>
       </c>
-      <c r="R1818" t="inlineStr"/>
+      <c r="R1818" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1819">
       <c r="A1819" s="2" t="n">
@@ -102325,7 +102333,9 @@
       <c r="Q1819" t="n">
         <v>0</v>
       </c>
-      <c r="R1819" t="inlineStr"/>
+      <c r="R1819" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1820">
       <c r="A1820" s="2" t="n">
@@ -102379,7 +102389,9 @@
       <c r="Q1820" t="n">
         <v>0</v>
       </c>
-      <c r="R1820" t="inlineStr"/>
+      <c r="R1820" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1821">
       <c r="A1821" s="2" t="n">
@@ -102433,7 +102445,387 @@
       <c r="Q1821" t="n">
         <v>0</v>
       </c>
-      <c r="R1821" t="inlineStr"/>
+      <c r="R1821" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45485.38541666666</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>1719.75</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>1722.699951171875</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>1698.050048828125</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>1703.199951171875</v>
+      </c>
+      <c r="F1822" t="n">
+        <v>1703.199951171875</v>
+      </c>
+      <c r="G1822" t="n">
+        <v>234525</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1822" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1822" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1822" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1822" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1822" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1822" t="inlineStr"/>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45485.42708333334</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>1701.699951171875</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>1715</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>1701.5</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>1705.150024414062</v>
+      </c>
+      <c r="F1823" t="n">
+        <v>1705.150024414062</v>
+      </c>
+      <c r="G1823" t="n">
+        <v>340926</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1823" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1823" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1823" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1823" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1823" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1823" t="inlineStr"/>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45485.46875</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>1705</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>1706</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>1690</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>1702.199951171875</v>
+      </c>
+      <c r="F1824" t="n">
+        <v>1702.199951171875</v>
+      </c>
+      <c r="G1824" t="n">
+        <v>143470</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1824" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1824" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1824" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1824" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1824" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1824" t="inlineStr"/>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45485.51041666666</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>1703</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>1705.25</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>1691.150024414062</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>1700</v>
+      </c>
+      <c r="F1825" t="n">
+        <v>1700</v>
+      </c>
+      <c r="G1825" t="n">
+        <v>97040</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1825" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1825" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1825" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1825" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1825" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1825" t="inlineStr"/>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45485.55208333334</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>1699.650024414062</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>1703</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>1692</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>1693.5</v>
+      </c>
+      <c r="F1826" t="n">
+        <v>1693.5</v>
+      </c>
+      <c r="G1826" t="n">
+        <v>106221</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1826" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1826" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1826" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1826" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1826" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1826" t="inlineStr"/>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45485.59375</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>1694</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>1695.800048828125</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>1679.199951171875</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>1694.449951171875</v>
+      </c>
+      <c r="F1827" t="n">
+        <v>1694.449951171875</v>
+      </c>
+      <c r="G1827" t="n">
+        <v>232374</v>
+      </c>
+      <c r="H1827" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1827" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1827" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1827" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1827" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1827" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1827" t="inlineStr"/>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45485.63541666666</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>1692.650024414062</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>1692.949951171875</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>1680</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>1688.400024414062</v>
+      </c>
+      <c r="F1828" t="n">
+        <v>1688.400024414062</v>
+      </c>
+      <c r="G1828" t="n">
+        <v>98526</v>
+      </c>
+      <c r="H1828" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1828" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1828" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1828" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1828" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1828" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1828" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1828"/>
+  <dimension ref="A1:R1835"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102501,7 +102501,9 @@
       <c r="Q1822" t="n">
         <v>0</v>
       </c>
-      <c r="R1822" t="inlineStr"/>
+      <c r="R1822" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1823">
       <c r="A1823" s="2" t="n">
@@ -102555,7 +102557,9 @@
       <c r="Q1823" t="n">
         <v>0</v>
       </c>
-      <c r="R1823" t="inlineStr"/>
+      <c r="R1823" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1824">
       <c r="A1824" s="2" t="n">
@@ -102609,7 +102613,9 @@
       <c r="Q1824" t="n">
         <v>0</v>
       </c>
-      <c r="R1824" t="inlineStr"/>
+      <c r="R1824" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1825">
       <c r="A1825" s="2" t="n">
@@ -102663,7 +102669,9 @@
       <c r="Q1825" t="n">
         <v>0</v>
       </c>
-      <c r="R1825" t="inlineStr"/>
+      <c r="R1825" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1826">
       <c r="A1826" s="2" t="n">
@@ -102717,7 +102725,9 @@
       <c r="Q1826" t="n">
         <v>0</v>
       </c>
-      <c r="R1826" t="inlineStr"/>
+      <c r="R1826" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1827">
       <c r="A1827" s="2" t="n">
@@ -102771,7 +102781,9 @@
       <c r="Q1827" t="n">
         <v>0</v>
       </c>
-      <c r="R1827" t="inlineStr"/>
+      <c r="R1827" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1828">
       <c r="A1828" s="2" t="n">
@@ -102825,7 +102837,387 @@
       <c r="Q1828" t="n">
         <v>0</v>
       </c>
-      <c r="R1828" t="inlineStr"/>
+      <c r="R1828" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>45488.38541666666</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>1695.349975585938</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>1695.75</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>1643.599975585938</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>1657</v>
+      </c>
+      <c r="F1829" t="n">
+        <v>1657</v>
+      </c>
+      <c r="G1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1829" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1829" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1829" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1829" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1829" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1829" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1829" t="inlineStr"/>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2" t="n">
+        <v>45488.42708333334</v>
+      </c>
+      <c r="B1830" t="n">
+        <v>1657</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>1681.550048828125</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>1657</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>1667.099975585938</v>
+      </c>
+      <c r="F1830" t="n">
+        <v>1667.099975585938</v>
+      </c>
+      <c r="G1830" t="n">
+        <v>99166</v>
+      </c>
+      <c r="H1830" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1830" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1830" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1830" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1830" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1830" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1830" t="inlineStr"/>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="2" t="n">
+        <v>45488.46875</v>
+      </c>
+      <c r="B1831" t="n">
+        <v>1667</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>1668.949951171875</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>1649.25</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>1662</v>
+      </c>
+      <c r="F1831" t="n">
+        <v>1662</v>
+      </c>
+      <c r="G1831" t="n">
+        <v>91989</v>
+      </c>
+      <c r="H1831" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1831" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1831" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1831" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1831" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1831" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1831" t="inlineStr"/>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="2" t="n">
+        <v>45488.51041666666</v>
+      </c>
+      <c r="B1832" t="n">
+        <v>1662</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>1664.949951171875</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>1649.050048828125</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>1654.75</v>
+      </c>
+      <c r="F1832" t="n">
+        <v>1654.75</v>
+      </c>
+      <c r="G1832" t="n">
+        <v>79293</v>
+      </c>
+      <c r="H1832" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1832" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1832" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1832" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1832" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1832" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1832" t="inlineStr"/>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="2" t="n">
+        <v>45488.55208333334</v>
+      </c>
+      <c r="B1833" t="n">
+        <v>1654.75</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>1670.75</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>1653.099975585938</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>1670.75</v>
+      </c>
+      <c r="F1833" t="n">
+        <v>1670.75</v>
+      </c>
+      <c r="G1833" t="n">
+        <v>85706</v>
+      </c>
+      <c r="H1833" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1833" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1833" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1833" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1833" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1833" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1833" t="inlineStr"/>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="2" t="n">
+        <v>45488.59375</v>
+      </c>
+      <c r="B1834" t="n">
+        <v>1670</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>1750</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>1670</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>1699.699951171875</v>
+      </c>
+      <c r="F1834" t="n">
+        <v>1699.699951171875</v>
+      </c>
+      <c r="G1834" t="n">
+        <v>893420</v>
+      </c>
+      <c r="H1834" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1834" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1834" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1834" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1834" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1834" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1834" t="inlineStr"/>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="2" t="n">
+        <v>45488.63541666666</v>
+      </c>
+      <c r="B1835" t="n">
+        <v>1698.849975585938</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>1710</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>1691.300048828125</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>1708.199951171875</v>
+      </c>
+      <c r="F1835" t="n">
+        <v>1708.199951171875</v>
+      </c>
+      <c r="G1835" t="n">
+        <v>112047</v>
+      </c>
+      <c r="H1835" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1835" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1835" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1835" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1835" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1835" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1835" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/TITAGARH.NS.xlsx
+++ b/stock_historical_data/60m/TITAGARH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1835"/>
+  <dimension ref="A1:R1842"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102885,7 +102885,7 @@
         <v>29</v>
       </c>
       <c r="O1829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1829" t="n">
         <v>0</v>
@@ -102893,7 +102893,9 @@
       <c r="Q1829" t="n">
         <v>0</v>
       </c>
-      <c r="R1829" t="inlineStr"/>
+      <c r="R1829" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1830">
       <c r="A1830" s="2" t="n">
@@ -102947,7 +102949,9 @@
       <c r="Q1830" t="n">
         <v>0</v>
       </c>
-      <c r="R1830" t="inlineStr"/>
+      <c r="R1830" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1831">
       <c r="A1831" s="2" t="n">
@@ -103001,7 +103005,9 @@
       <c r="Q1831" t="n">
         <v>0</v>
       </c>
-      <c r="R1831" t="inlineStr"/>
+      <c r="R1831" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1832">
       <c r="A1832" s="2" t="n">
@@ -103055,7 +103061,9 @@
       <c r="Q1832" t="n">
         <v>0</v>
       </c>
-      <c r="R1832" t="inlineStr"/>
+      <c r="R1832" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1833">
       <c r="A1833" s="2" t="n">
@@ -103109,7 +103117,9 @@
       <c r="Q1833" t="n">
         <v>0</v>
       </c>
-      <c r="R1833" t="inlineStr"/>
+      <c r="R1833" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1834">
       <c r="A1834" s="2" t="n">
@@ -103163,7 +103173,9 @@
       <c r="Q1834" t="n">
         <v>0</v>
       </c>
-      <c r="R1834" t="inlineStr"/>
+      <c r="R1834" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1835">
       <c r="A1835" s="2" t="n">
@@ -103217,7 +103229,387 @@
       <c r="Q1835" t="n">
         <v>0</v>
       </c>
-      <c r="R1835" t="inlineStr"/>
+      <c r="R1835" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="2" t="n">
+        <v>45489.38541666666</v>
+      </c>
+      <c r="B1836" t="n">
+        <v>1717.599975585938</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>1718</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>1686.150024414062</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>1703.550048828125</v>
+      </c>
+      <c r="F1836" t="n">
+        <v>1703.550048828125</v>
+      </c>
+      <c r="G1836" t="n">
+        <v>277349</v>
+      </c>
+      <c r="H1836" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1836" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1836" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1836" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1836" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1836" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1836" t="inlineStr"/>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="2" t="n">
+        <v>45489.42708333334</v>
+      </c>
+      <c r="B1837" t="n">
+        <v>1703.949951171875</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>1720</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>1702.699951171875</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>1707.050048828125</v>
+      </c>
+      <c r="F1837" t="n">
+        <v>1707.050048828125</v>
+      </c>
+      <c r="G1837" t="n">
+        <v>460017</v>
+      </c>
+      <c r="H1837" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1837" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1837" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1837" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1837" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1837" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1837" t="inlineStr"/>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="2" t="n">
+        <v>45489.46875</v>
+      </c>
+      <c r="B1838" t="n">
+        <v>1708</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>1710</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>1692</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>1694.900024414062</v>
+      </c>
+      <c r="F1838" t="n">
+        <v>1694.900024414062</v>
+      </c>
+      <c r="G1838" t="n">
+        <v>78693</v>
+      </c>
+      <c r="H1838" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1838" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1838" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1838" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1838" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1838" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1838" t="inlineStr"/>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="2" t="n">
+        <v>45489.51041666666</v>
+      </c>
+      <c r="B1839" t="n">
+        <v>1694.199951171875</v>
+      </c>
+      <c r="C1839" t="n">
+        <v>1696.5</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>1681</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>1683.949951171875</v>
+      </c>
+      <c r="F1839" t="n">
+        <v>1683.949951171875</v>
+      </c>
+      <c r="G1839" t="n">
+        <v>92719</v>
+      </c>
+      <c r="H1839" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1839" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1839" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1839" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1839" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1839" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1839" t="inlineStr"/>
+    </row>
+    <row r="1840">
+      <c r="A1840" s="2" t="n">
+        <v>45489.55208333334</v>
+      </c>
+      <c r="B1840" t="n">
+        <v>1683.050048828125</v>
+      </c>
+      <c r="C1840" t="n">
+        <v>1685.5</v>
+      </c>
+      <c r="D1840" t="n">
+        <v>1655</v>
+      </c>
+      <c r="E1840" t="n">
+        <v>1657</v>
+      </c>
+      <c r="F1840" t="n">
+        <v>1657</v>
+      </c>
+      <c r="G1840" t="n">
+        <v>166528</v>
+      </c>
+      <c r="H1840" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1840" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1840" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1840" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1840" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1840" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1840" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1840" t="inlineStr"/>
+    </row>
+    <row r="1841">
+      <c r="A1841" s="2" t="n">
+        <v>45489.59375</v>
+      </c>
+      <c r="B1841" t="n">
+        <v>1657.849975585938</v>
+      </c>
+      <c r="C1841" t="n">
+        <v>1710</v>
+      </c>
+      <c r="D1841" t="n">
+        <v>1652</v>
+      </c>
+      <c r="E1841" t="n">
+        <v>1704.949951171875</v>
+      </c>
+      <c r="F1841" t="n">
+        <v>1704.949951171875</v>
+      </c>
+      <c r="G1841" t="n">
+        <v>453865</v>
+      </c>
+      <c r="H1841" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1841" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1841" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1841" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1841" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1841" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1841" t="inlineStr"/>
+    </row>
+    <row r="1842">
+      <c r="A1842" s="2" t="n">
+        <v>45489.63541666666</v>
+      </c>
+      <c r="B1842" t="n">
+        <v>1704.050048828125</v>
+      </c>
+      <c r="C1842" t="n">
+        <v>1706.099975585938</v>
+      </c>
+      <c r="D1842" t="n">
+        <v>1703</v>
+      </c>
+      <c r="E1842" t="n">
+        <v>1704.349975585938</v>
+      </c>
+      <c r="F1842" t="n">
+        <v>1704.349975585938</v>
+      </c>
+      <c r="G1842" t="n">
+        <v>116441</v>
+      </c>
+      <c r="H1842" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1842" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1842" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1842" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1842" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1842" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1842" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
